--- a/puf_irs_crosswalk_wip.xlsx
+++ b/puf_irs_crosswalk_wip.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cursor\puf_irs_crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3338F95D-14F3-4876-9048-3715597C85F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3266D9FF-E1A0-478C-B792-9FF399E9E800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="46950" windowHeight="19060" activeTab="3" xr2:uid="{039B89A4-1C14-4864-BF2A-BAB17899AA0B}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="46950" windowHeight="19060" xr2:uid="{039B89A4-1C14-4864-BF2A-BAB17899AA0B}"/>
   </bookViews>
   <sheets>
-    <sheet name="wip" sheetId="3" r:id="rId1"/>
-    <sheet name="raw_table" sheetId="1" r:id="rId2"/>
-    <sheet name="cleaned_table_wip" sheetId="2" r:id="rId3"/>
-    <sheet name="puf2015_vnames" sheetId="4" r:id="rId4"/>
+    <sheet name="links" sheetId="8" r:id="rId1"/>
+    <sheet name="irs_downloads" sheetId="7" r:id="rId2"/>
+    <sheet name="puf2015_aggrecs" sheetId="6" r:id="rId3"/>
+    <sheet name="wip" sheetId="3" r:id="rId4"/>
+    <sheet name="raw_table" sheetId="1" r:id="rId5"/>
+    <sheet name="cleaned_table_wip" sheetId="2" r:id="rId6"/>
+    <sheet name="puf2015_vnames" sheetId="4" r:id="rId7"/>
+    <sheet name="puf2015_wtdsums" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="652">
   <si>
     <t>Concept</t>
   </si>
@@ -1749,13 +1753,387 @@
   </si>
   <si>
     <t>Marginal tax rate (Misc Codes)</t>
+  </si>
+  <si>
+    <t>2015 Amounts</t>
+  </si>
+  <si>
+    <t>PUF 2015 documentation pp. 46-50</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>PUF_2015</t>
+  </si>
+  <si>
+    <t>form_location_2015</t>
+  </si>
+  <si>
+    <t>F1040_37</t>
+  </si>
+  <si>
+    <t>F1040_7</t>
+  </si>
+  <si>
+    <t>F1040_8a</t>
+  </si>
+  <si>
+    <t>F1040_8b</t>
+  </si>
+  <si>
+    <t>F1040_9a</t>
+  </si>
+  <si>
+    <t>F1040_9b</t>
+  </si>
+  <si>
+    <t>F1040_10</t>
+  </si>
+  <si>
+    <t>F1040_11</t>
+  </si>
+  <si>
+    <t>F1040_12</t>
+  </si>
+  <si>
+    <t>F1040_13</t>
+  </si>
+  <si>
+    <t>F1040_13*</t>
+  </si>
+  <si>
+    <t>F1040_14</t>
+  </si>
+  <si>
+    <t>F1040_15b</t>
+  </si>
+  <si>
+    <t>F1040_16a</t>
+  </si>
+  <si>
+    <t>F1040_16b</t>
+  </si>
+  <si>
+    <t>F1040_17</t>
+  </si>
+  <si>
+    <t>F1040_18</t>
+  </si>
+  <si>
+    <t>F1040_19</t>
+  </si>
+  <si>
+    <t>F1040_20a</t>
+  </si>
+  <si>
+    <t>F1040_20b</t>
+  </si>
+  <si>
+    <t>F1040_32</t>
+  </si>
+  <si>
+    <t>F1040_33</t>
+  </si>
+  <si>
+    <t>F1040_23</t>
+  </si>
+  <si>
+    <t>F1040_34</t>
+  </si>
+  <si>
+    <t>F1040_35</t>
+  </si>
+  <si>
+    <t>F1040_27</t>
+  </si>
+  <si>
+    <t>F1040_29</t>
+  </si>
+  <si>
+    <t>F1040_25</t>
+  </si>
+  <si>
+    <t>F1040_28</t>
+  </si>
+  <si>
+    <t>Forfeited interest penalty (penalty on early withdrawal)</t>
+  </si>
+  <si>
+    <t>F1040_30</t>
+  </si>
+  <si>
+    <t>F1040_31a</t>
+  </si>
+  <si>
+    <t>pp 32-36 of PUF 2015 documentation</t>
+  </si>
+  <si>
+    <t>nret</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>nret_pos</t>
+  </si>
+  <si>
+    <t>amount_pos</t>
+  </si>
+  <si>
+    <t>nret_neg</t>
+  </si>
+  <si>
+    <t>amount_neg</t>
+  </si>
+  <si>
+    <t>Full SOI_sample_2015</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>table_description</t>
+  </si>
+  <si>
+    <t>key_concepts</t>
+  </si>
+  <si>
+    <t>taxyears</t>
+  </si>
+  <si>
+    <t>baseurl</t>
+  </si>
+  <si>
+    <t>fname_base</t>
+  </si>
+  <si>
+    <t>fname_example</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>tab11</t>
+  </si>
+  <si>
+    <t>Table 1.1.  All Returns: Selected Income and Tax Items, by Size and Accumulated Size of Adjusted Gross Income</t>
+  </si>
+  <si>
+    <t>All returns: # &amp; amount of AGI
+Taxable returns: # and amount of AGI, taxable income, Income tax after credits, Total income tax
+19 AGI ranges plus total
+5 x 2 x 20 = 200 potential targets</t>
+  </si>
+  <si>
+    <t>1996-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.irs.gov/pub/irs-soi/</t>
+  </si>
+  <si>
+    <t>in11si.xls</t>
+  </si>
+  <si>
+    <t>21in11si.xls</t>
+  </si>
+  <si>
+    <t>tab12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1.2.  All Returns: Adjusted Gross Income, Deductions, and Tax Items, by Size of Adjusted Gross Income and by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Marital Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For all returns and each of 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filing statuses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 
+    # and amount, for each of 6 items: 
+            AGI, itemized deductions, standard deduction, taxable income, income tax after credits, total income tax
+19 AGI ranges plus total
+5 x 2 x 6 x 20 = 1,200 potential targets</t>
+    </r>
+  </si>
+  <si>
+    <t>in12ms.xls</t>
+  </si>
+  <si>
+    <t>21in12ms.xls</t>
+  </si>
+  <si>
+    <t>Table has one set of data for all returns, and below that an additional set of data for taxable returns</t>
+  </si>
+  <si>
+    <t>tab14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1.4.  All Returns: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sources of Income, Adjustments, and Tax Items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, by Size of Adjusted Gross Income</t>
+    </r>
+  </si>
+  <si>
+    <t>For all returns: # and amount of more than 30 income or loss items and at least 20 other items of adjustment or above-the-line deductions
+19 AGI ranges plus total
+50+ x  20 = &gt; 1,000 potential targets</t>
+  </si>
+  <si>
+    <t>1993-2022</t>
+  </si>
+  <si>
+    <t>in14ar.xls</t>
+  </si>
+  <si>
+    <t>21in14ar.xls</t>
+  </si>
+  <si>
+    <t>tab21</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 2.1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Returns with Itemized Deductions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sources of Income,  Adjustments, Itemized Deductions by Type, Exemptions, and Tax Items, by Size of Adjusted Gross Income</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For returns with itemized deductions: # and amount, and certain details, pertaining to more than 30 sources of income and details of itemized deductions. Of special interest because it includes details on  medical, interest  paid, and taxes paid deductions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">22 AGI ranges plus total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+30+ x 23 = &gt; 690 potential targets</t>
+    </r>
+  </si>
+  <si>
+    <t>in21id.xls</t>
+  </si>
+  <si>
+    <t>21in21id.xls</t>
+  </si>
+  <si>
+    <t>Note different AGI ranges vs. other tables</t>
+  </si>
+  <si>
+    <t>taxcalc variables</t>
+  </si>
+  <si>
+    <t>taxcalc github</t>
+  </si>
+  <si>
+    <t>taxcalc calcfunctions.py</t>
+  </si>
+  <si>
+    <t>IRS Publication 1304</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1784,13 +2162,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -1907,30 +2299,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1942,45 +2336,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1994,6 +2397,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>61692</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>117970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B407CE9F-6CC7-4EE9-A528-9C887A07A1B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6507336" y="453749"/>
+          <a:ext cx="9564982" cy="1113459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>158883</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8219084F-24A5-4795-806B-7E38A1F9A334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8850414" y="816059"/>
+          <a:ext cx="9277291" cy="2434714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2312,6 +2813,4217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D10112A-07EB-4024-93D0-CD5FF641144C}">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="28" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
+        <v>651</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5552B2EE-28EC-473F-8ACD-69961CEF47B0}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{FB18AA89-0CAD-42B0-85E6-9826B6212EF5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{CD3552F5-FE83-4C80-A397-C4F690F131E7}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{28567C56-1F06-4F2C-BBAB-6666020AEAC9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9260840-5228-4129-8A77-61219F8D01C1}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>623</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>644</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>645</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F902902-130D-49C7-9260-70904454DF93}">
+  <dimension ref="A1:G174"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1232</v>
+      </c>
+      <c r="C4" s="24">
+        <v>140338133</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1092</v>
+      </c>
+      <c r="E4" s="24">
+        <v>153859830</v>
+      </c>
+      <c r="F4" s="24">
+        <v>140</v>
+      </c>
+      <c r="G4" s="24">
+        <v>-13521697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="24">
+        <v>864</v>
+      </c>
+      <c r="C5" s="24">
+        <v>11326888</v>
+      </c>
+      <c r="D5" s="24">
+        <v>864</v>
+      </c>
+      <c r="E5" s="24">
+        <v>11326888</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1208</v>
+      </c>
+      <c r="C6" s="24">
+        <v>8883373</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1208</v>
+      </c>
+      <c r="E6" s="24">
+        <v>8883373</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="24">
+        <v>936</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1405004</v>
+      </c>
+      <c r="D7" s="24">
+        <v>936</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1405004</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1160</v>
+      </c>
+      <c r="C8" s="26">
+        <v>20424594</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1160</v>
+      </c>
+      <c r="E8" s="26">
+        <v>20424594</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1129</v>
+      </c>
+      <c r="C9" s="26">
+        <v>17593163</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1129</v>
+      </c>
+      <c r="E9" s="26">
+        <v>17593163</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="24">
+        <v>629</v>
+      </c>
+      <c r="C10" s="24">
+        <v>855065</v>
+      </c>
+      <c r="D10" s="24">
+        <v>629</v>
+      </c>
+      <c r="E10" s="24">
+        <v>855065</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="24">
+        <v>444</v>
+      </c>
+      <c r="C11" s="24">
+        <v>931541</v>
+      </c>
+      <c r="D11" s="24">
+        <v>237</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1884732</v>
+      </c>
+      <c r="F11" s="24">
+        <v>207</v>
+      </c>
+      <c r="G11" s="24">
+        <v>-953191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="26">
+        <v>1179</v>
+      </c>
+      <c r="C12" s="26">
+        <v>86694320</v>
+      </c>
+      <c r="D12" s="26">
+        <v>913</v>
+      </c>
+      <c r="E12" s="26">
+        <v>86695065</v>
+      </c>
+      <c r="F12" s="26">
+        <v>266</v>
+      </c>
+      <c r="G12" s="26">
+        <v>-745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="24">
+        <v>773</v>
+      </c>
+      <c r="C14" s="24">
+        <v>10182316</v>
+      </c>
+      <c r="D14" s="24">
+        <v>466</v>
+      </c>
+      <c r="E14" s="24">
+        <v>10921067</v>
+      </c>
+      <c r="F14" s="24">
+        <v>307</v>
+      </c>
+      <c r="G14" s="24">
+        <v>-738751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" s="24">
+        <v>180</v>
+      </c>
+      <c r="C15" s="24">
+        <v>380019</v>
+      </c>
+      <c r="D15" s="24">
+        <v>180</v>
+      </c>
+      <c r="E15" s="24">
+        <v>380019</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="24">
+        <v>315</v>
+      </c>
+      <c r="C16" s="24">
+        <v>448328</v>
+      </c>
+      <c r="D16" s="24">
+        <v>315</v>
+      </c>
+      <c r="E16" s="24">
+        <v>448328</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="24">
+        <v>255</v>
+      </c>
+      <c r="C17" s="24">
+        <v>304403</v>
+      </c>
+      <c r="D17" s="24">
+        <v>255</v>
+      </c>
+      <c r="E17" s="24">
+        <v>304403</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1152</v>
+      </c>
+      <c r="C18" s="26">
+        <v>12177075</v>
+      </c>
+      <c r="D18" s="26">
+        <v>679</v>
+      </c>
+      <c r="E18" s="26">
+        <v>30421121</v>
+      </c>
+      <c r="F18" s="26">
+        <v>473</v>
+      </c>
+      <c r="G18" s="26">
+        <v>-18244046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B19" s="24">
+        <v>96</v>
+      </c>
+      <c r="C19" s="24">
+        <v>-215315</v>
+      </c>
+      <c r="D19" s="24">
+        <v>33</v>
+      </c>
+      <c r="E19" s="24">
+        <v>103932</v>
+      </c>
+      <c r="F19" s="24">
+        <v>63</v>
+      </c>
+      <c r="G19" s="24">
+        <v>-319247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="24">
+        <v>346</v>
+      </c>
+      <c r="C21" s="24">
+        <v>12723</v>
+      </c>
+      <c r="D21" s="24">
+        <v>346</v>
+      </c>
+      <c r="E21" s="24">
+        <v>12723</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="24">
+        <v>313</v>
+      </c>
+      <c r="C22" s="24">
+        <v>9867</v>
+      </c>
+      <c r="D22" s="24">
+        <v>313</v>
+      </c>
+      <c r="E22" s="24">
+        <v>9867</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="24">
+        <v>15</v>
+      </c>
+      <c r="C23" s="24">
+        <v>175</v>
+      </c>
+      <c r="D23" s="24">
+        <v>15</v>
+      </c>
+      <c r="E23" s="24">
+        <v>175</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="24">
+        <v>0</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="24">
+        <v>338</v>
+      </c>
+      <c r="C27" s="24">
+        <v>781314</v>
+      </c>
+      <c r="D27" s="24">
+        <v>338</v>
+      </c>
+      <c r="E27" s="24">
+        <v>781314</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B28" s="24">
+        <v>546</v>
+      </c>
+      <c r="C28" s="24">
+        <v>71590</v>
+      </c>
+      <c r="D28" s="24">
+        <v>546</v>
+      </c>
+      <c r="E28" s="24">
+        <v>71590</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" s="24">
+        <v>315</v>
+      </c>
+      <c r="C29" s="24">
+        <v>8758</v>
+      </c>
+      <c r="D29" s="24">
+        <v>315</v>
+      </c>
+      <c r="E29" s="24">
+        <v>8758</v>
+      </c>
+      <c r="F29" s="24">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="24">
+        <v>30</v>
+      </c>
+      <c r="C30" s="24">
+        <v>162</v>
+      </c>
+      <c r="D30" s="24">
+        <v>30</v>
+      </c>
+      <c r="E30" s="24">
+        <v>162</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="24">
+        <v>150</v>
+      </c>
+      <c r="C31" s="24">
+        <v>32517</v>
+      </c>
+      <c r="D31" s="24">
+        <v>150</v>
+      </c>
+      <c r="E31" s="24">
+        <v>32517</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" s="24">
+        <v>12</v>
+      </c>
+      <c r="C32" s="24">
+        <v>139</v>
+      </c>
+      <c r="D32" s="24">
+        <v>12</v>
+      </c>
+      <c r="E32" s="24">
+        <v>139</v>
+      </c>
+      <c r="F32" s="24">
+        <v>0</v>
+      </c>
+      <c r="G32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B33" s="24">
+        <v>149</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1269</v>
+      </c>
+      <c r="D33" s="24">
+        <v>149</v>
+      </c>
+      <c r="E33" s="24">
+        <v>1269</v>
+      </c>
+      <c r="F33" s="24">
+        <v>0</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="24">
+        <v>1065</v>
+      </c>
+      <c r="C34" s="24">
+        <v>124873722</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1065</v>
+      </c>
+      <c r="E34" s="24">
+        <v>124873722</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="24">
+        <v>1064</v>
+      </c>
+      <c r="C35" s="24">
+        <v>33962123</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1064</v>
+      </c>
+      <c r="E35" s="24">
+        <v>33962123</v>
+      </c>
+      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" s="24">
+        <v>1065</v>
+      </c>
+      <c r="C36" s="24">
+        <v>49397154</v>
+      </c>
+      <c r="D36" s="24">
+        <v>1065</v>
+      </c>
+      <c r="E36" s="24">
+        <v>49397154</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" s="24">
+        <v>1098</v>
+      </c>
+      <c r="C37" s="24">
+        <v>35004376</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1098</v>
+      </c>
+      <c r="E37" s="24">
+        <v>35004376</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0</v>
+      </c>
+      <c r="G37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" s="24">
+        <v>765</v>
+      </c>
+      <c r="C38" s="24">
+        <v>46122568</v>
+      </c>
+      <c r="D38" s="24">
+        <v>765</v>
+      </c>
+      <c r="E38" s="24">
+        <v>46122568</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>293</v>
+      </c>
+      <c r="B39" s="24">
+        <v>765</v>
+      </c>
+      <c r="C39" s="24">
+        <v>45800606</v>
+      </c>
+      <c r="D39" s="24">
+        <v>765</v>
+      </c>
+      <c r="E39" s="24">
+        <v>45800606</v>
+      </c>
+      <c r="F39" s="24">
+        <v>0</v>
+      </c>
+      <c r="G39" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B40" s="24">
+        <v>765</v>
+      </c>
+      <c r="C40" s="24">
+        <v>18227054</v>
+      </c>
+      <c r="D40" s="24">
+        <v>765</v>
+      </c>
+      <c r="E40" s="24">
+        <v>18227054</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="24">
+        <v>1096</v>
+      </c>
+      <c r="C41" s="24">
+        <v>35773043</v>
+      </c>
+      <c r="D41" s="24">
+        <v>1096</v>
+      </c>
+      <c r="E41" s="24">
+        <v>35773043</v>
+      </c>
+      <c r="F41" s="24">
+        <v>0</v>
+      </c>
+      <c r="G41" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" s="24">
+        <v>955</v>
+      </c>
+      <c r="C42" s="24">
+        <v>2378174</v>
+      </c>
+      <c r="D42" s="24">
+        <v>955</v>
+      </c>
+      <c r="E42" s="24">
+        <v>2378174</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0</v>
+      </c>
+      <c r="G42" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0</v>
+      </c>
+      <c r="E43" s="24">
+        <v>0</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" s="24">
+        <v>0</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="24">
+        <v>4</v>
+      </c>
+      <c r="C45" s="24">
+        <v>4</v>
+      </c>
+      <c r="D45" s="24">
+        <v>4</v>
+      </c>
+      <c r="E45" s="24">
+        <v>4</v>
+      </c>
+      <c r="F45" s="24">
+        <v>0</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="24">
+        <v>0</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0</v>
+      </c>
+      <c r="D46" s="24">
+        <v>0</v>
+      </c>
+      <c r="E46" s="24">
+        <v>0</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0</v>
+      </c>
+      <c r="G46" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>307</v>
+      </c>
+      <c r="B47" s="24">
+        <v>0</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0</v>
+      </c>
+      <c r="E47" s="24">
+        <v>0</v>
+      </c>
+      <c r="F47" s="24">
+        <v>0</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="24">
+        <v>17</v>
+      </c>
+      <c r="C48" s="24">
+        <v>1590</v>
+      </c>
+      <c r="D48" s="24">
+        <v>17</v>
+      </c>
+      <c r="E48" s="24">
+        <v>1590</v>
+      </c>
+      <c r="F48" s="24">
+        <v>0</v>
+      </c>
+      <c r="G48" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>311</v>
+      </c>
+      <c r="B49" s="24">
+        <v>848</v>
+      </c>
+      <c r="C49" s="24">
+        <v>1944682</v>
+      </c>
+      <c r="D49" s="24">
+        <v>848</v>
+      </c>
+      <c r="E49" s="24">
+        <v>1944682</v>
+      </c>
+      <c r="F49" s="24">
+        <v>0</v>
+      </c>
+      <c r="G49" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="24">
+        <v>475</v>
+      </c>
+      <c r="C50" s="24">
+        <v>334882</v>
+      </c>
+      <c r="D50" s="24">
+        <v>475</v>
+      </c>
+      <c r="E50" s="24">
+        <v>334882</v>
+      </c>
+      <c r="F50" s="24">
+        <v>0</v>
+      </c>
+      <c r="G50" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>315</v>
+      </c>
+      <c r="B51" s="24">
+        <v>60</v>
+      </c>
+      <c r="C51" s="24">
+        <v>83188</v>
+      </c>
+      <c r="D51" s="24">
+        <v>60</v>
+      </c>
+      <c r="E51" s="24">
+        <v>83188</v>
+      </c>
+      <c r="F51" s="24">
+        <v>0</v>
+      </c>
+      <c r="G51" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" s="24">
+        <v>1080</v>
+      </c>
+      <c r="C52" s="24">
+        <v>32626201</v>
+      </c>
+      <c r="D52" s="24">
+        <v>1080</v>
+      </c>
+      <c r="E52" s="24">
+        <v>32626201</v>
+      </c>
+      <c r="F52" s="24">
+        <v>0</v>
+      </c>
+      <c r="G52" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>325</v>
+      </c>
+      <c r="B53" s="24">
+        <v>546</v>
+      </c>
+      <c r="C53" s="24">
+        <v>143178</v>
+      </c>
+      <c r="D53" s="24">
+        <v>546</v>
+      </c>
+      <c r="E53" s="24">
+        <v>143178</v>
+      </c>
+      <c r="F53" s="24">
+        <v>0</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="24">
+        <v>392</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1034035</v>
+      </c>
+      <c r="D54" s="24">
+        <v>392</v>
+      </c>
+      <c r="E54" s="24">
+        <v>1034035</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="24">
+        <v>3</v>
+      </c>
+      <c r="C55" s="24">
+        <v>127</v>
+      </c>
+      <c r="D55" s="24">
+        <v>3</v>
+      </c>
+      <c r="E55" s="24">
+        <v>127</v>
+      </c>
+      <c r="F55" s="24">
+        <v>0</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>329</v>
+      </c>
+      <c r="B56" s="24">
+        <v>740</v>
+      </c>
+      <c r="C56" s="24">
+        <v>133345</v>
+      </c>
+      <c r="D56" s="24">
+        <v>740</v>
+      </c>
+      <c r="E56" s="24">
+        <v>133345</v>
+      </c>
+      <c r="F56" s="24">
+        <v>0</v>
+      </c>
+      <c r="G56" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" s="24">
+        <v>988</v>
+      </c>
+      <c r="C57" s="24">
+        <v>3146842</v>
+      </c>
+      <c r="D57" s="24">
+        <v>988</v>
+      </c>
+      <c r="E57" s="24">
+        <v>3146842</v>
+      </c>
+      <c r="F57" s="24">
+        <v>0</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>333</v>
+      </c>
+      <c r="B58" s="24">
+        <v>7</v>
+      </c>
+      <c r="C58" s="24">
+        <v>28</v>
+      </c>
+      <c r="D58" s="24">
+        <v>7</v>
+      </c>
+      <c r="E58" s="24">
+        <v>28</v>
+      </c>
+      <c r="F58" s="24">
+        <v>0</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>335</v>
+      </c>
+      <c r="B59" s="24">
+        <v>0</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0</v>
+      </c>
+      <c r="F59" s="24">
+        <v>0</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" s="24">
+        <v>13</v>
+      </c>
+      <c r="C60" s="24">
+        <v>5463</v>
+      </c>
+      <c r="D60" s="24">
+        <v>13</v>
+      </c>
+      <c r="E60" s="24">
+        <v>5463</v>
+      </c>
+      <c r="F60" s="24">
+        <v>0</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61" s="24">
+        <v>1163</v>
+      </c>
+      <c r="C61" s="24">
+        <v>36109343</v>
+      </c>
+      <c r="D61" s="24">
+        <v>1163</v>
+      </c>
+      <c r="E61" s="24">
+        <v>36109343</v>
+      </c>
+      <c r="F61" s="24">
+        <v>0</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>381</v>
+      </c>
+      <c r="B62" s="24">
+        <v>1180</v>
+      </c>
+      <c r="C62" s="24">
+        <v>42314056</v>
+      </c>
+      <c r="D62" s="24">
+        <v>1180</v>
+      </c>
+      <c r="E62" s="24">
+        <v>42314056</v>
+      </c>
+      <c r="F62" s="24">
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>341</v>
+      </c>
+      <c r="B63" s="24">
+        <v>903</v>
+      </c>
+      <c r="C63" s="24">
+        <v>4491125</v>
+      </c>
+      <c r="D63" s="24">
+        <v>903</v>
+      </c>
+      <c r="E63" s="24">
+        <v>4491125</v>
+      </c>
+      <c r="F63" s="24">
+        <v>0</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>343</v>
+      </c>
+      <c r="B64" s="24">
+        <v>1013</v>
+      </c>
+      <c r="C64" s="24">
+        <v>22843546</v>
+      </c>
+      <c r="D64" s="24">
+        <v>1013</v>
+      </c>
+      <c r="E64" s="24">
+        <v>22843546</v>
+      </c>
+      <c r="F64" s="24">
+        <v>0</v>
+      </c>
+      <c r="G64" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="24">
+        <v>0</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0</v>
+      </c>
+      <c r="D65" s="24">
+        <v>0</v>
+      </c>
+      <c r="E65" s="24">
+        <v>0</v>
+      </c>
+      <c r="F65" s="24">
+        <v>0</v>
+      </c>
+      <c r="G65" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>365</v>
+      </c>
+      <c r="B66" s="24">
+        <v>8</v>
+      </c>
+      <c r="C66" s="24">
+        <v>14</v>
+      </c>
+      <c r="D66" s="24">
+        <v>8</v>
+      </c>
+      <c r="E66" s="24">
+        <v>14</v>
+      </c>
+      <c r="F66" s="24">
+        <v>0</v>
+      </c>
+      <c r="G66" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>367</v>
+      </c>
+      <c r="B67" s="24">
+        <v>737</v>
+      </c>
+      <c r="C67" s="24">
+        <v>14977232</v>
+      </c>
+      <c r="D67" s="24">
+        <v>737</v>
+      </c>
+      <c r="E67" s="24">
+        <v>14977232</v>
+      </c>
+      <c r="F67" s="24">
+        <v>0</v>
+      </c>
+      <c r="G67" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" s="24">
+        <v>130</v>
+      </c>
+      <c r="C68" s="24">
+        <v>1815</v>
+      </c>
+      <c r="D68" s="24">
+        <v>130</v>
+      </c>
+      <c r="E68" s="24">
+        <v>1815</v>
+      </c>
+      <c r="F68" s="24">
+        <v>0</v>
+      </c>
+      <c r="G68" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B69" s="24">
+        <v>71</v>
+      </c>
+      <c r="C69" s="24">
+        <v>338</v>
+      </c>
+      <c r="D69" s="24">
+        <v>71</v>
+      </c>
+      <c r="E69" s="24">
+        <v>338</v>
+      </c>
+      <c r="F69" s="24">
+        <v>0</v>
+      </c>
+      <c r="G69" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" s="24">
+        <v>20</v>
+      </c>
+      <c r="C70" s="24">
+        <v>1559</v>
+      </c>
+      <c r="D70" s="24">
+        <v>20</v>
+      </c>
+      <c r="E70" s="24">
+        <v>1559</v>
+      </c>
+      <c r="F70" s="24">
+        <v>0</v>
+      </c>
+      <c r="G70" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="24">
+        <v>3</v>
+      </c>
+      <c r="C71" s="24">
+        <v>6</v>
+      </c>
+      <c r="D71" s="24">
+        <v>3</v>
+      </c>
+      <c r="E71" s="24">
+        <v>6</v>
+      </c>
+      <c r="F71" s="24">
+        <v>0</v>
+      </c>
+      <c r="G71" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72" s="24">
+        <v>0</v>
+      </c>
+      <c r="C72" s="24">
+        <v>0</v>
+      </c>
+      <c r="D72" s="24">
+        <v>0</v>
+      </c>
+      <c r="E72" s="24">
+        <v>0</v>
+      </c>
+      <c r="F72" s="24">
+        <v>0</v>
+      </c>
+      <c r="G72" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>359</v>
+      </c>
+      <c r="B73" s="24">
+        <v>0</v>
+      </c>
+      <c r="C73" s="24">
+        <v>0</v>
+      </c>
+      <c r="D73" s="24">
+        <v>0</v>
+      </c>
+      <c r="E73" s="24">
+        <v>0</v>
+      </c>
+      <c r="F73" s="24">
+        <v>0</v>
+      </c>
+      <c r="G73" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>361</v>
+      </c>
+      <c r="B74" s="24">
+        <v>0</v>
+      </c>
+      <c r="C74" s="24">
+        <v>0</v>
+      </c>
+      <c r="D74" s="24">
+        <v>0</v>
+      </c>
+      <c r="E74" s="24">
+        <v>0</v>
+      </c>
+      <c r="F74" s="24">
+        <v>0</v>
+      </c>
+      <c r="G74" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" s="24">
+        <v>0</v>
+      </c>
+      <c r="C75" s="24">
+        <v>0</v>
+      </c>
+      <c r="D75" s="24">
+        <v>0</v>
+      </c>
+      <c r="E75" s="24">
+        <v>0</v>
+      </c>
+      <c r="F75" s="24">
+        <v>0</v>
+      </c>
+      <c r="G75" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>375</v>
+      </c>
+      <c r="B76" s="24">
+        <v>17</v>
+      </c>
+      <c r="C76" s="24">
+        <v>1029</v>
+      </c>
+      <c r="D76" s="24">
+        <v>17</v>
+      </c>
+      <c r="E76" s="24">
+        <v>1029</v>
+      </c>
+      <c r="F76" s="24">
+        <v>0</v>
+      </c>
+      <c r="G76" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>377</v>
+      </c>
+      <c r="B77" s="24">
+        <v>8</v>
+      </c>
+      <c r="C77" s="24">
+        <v>12</v>
+      </c>
+      <c r="D77" s="24">
+        <v>8</v>
+      </c>
+      <c r="E77" s="24">
+        <v>12</v>
+      </c>
+      <c r="F77" s="24">
+        <v>0</v>
+      </c>
+      <c r="G77" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>379</v>
+      </c>
+      <c r="B78" s="24">
+        <v>11</v>
+      </c>
+      <c r="C78" s="24">
+        <v>545</v>
+      </c>
+      <c r="D78" s="24">
+        <v>11</v>
+      </c>
+      <c r="E78" s="24">
+        <v>545</v>
+      </c>
+      <c r="F78" s="24">
+        <v>0</v>
+      </c>
+      <c r="G78" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>383</v>
+      </c>
+      <c r="B79" s="24">
+        <v>1209</v>
+      </c>
+      <c r="C79" s="24">
+        <v>-6190160</v>
+      </c>
+      <c r="D79" s="24">
+        <v>175</v>
+      </c>
+      <c r="E79" s="24">
+        <v>1671194</v>
+      </c>
+      <c r="F79" s="24">
+        <v>1034</v>
+      </c>
+      <c r="G79" s="24">
+        <v>-7861354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" s="24">
+        <v>862</v>
+      </c>
+      <c r="C80" s="24">
+        <v>6791290</v>
+      </c>
+      <c r="D80" s="24">
+        <v>862</v>
+      </c>
+      <c r="E80" s="24">
+        <v>6791290</v>
+      </c>
+      <c r="F80" s="24">
+        <v>0</v>
+      </c>
+      <c r="G80" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>387</v>
+      </c>
+      <c r="B81" s="24">
+        <v>243</v>
+      </c>
+      <c r="C81" s="24">
+        <v>14957</v>
+      </c>
+      <c r="D81" s="24">
+        <v>243</v>
+      </c>
+      <c r="E81" s="24">
+        <v>14957</v>
+      </c>
+      <c r="F81" s="24">
+        <v>0</v>
+      </c>
+      <c r="G81" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>389</v>
+      </c>
+      <c r="B82" s="24">
+        <v>28</v>
+      </c>
+      <c r="C82" s="24">
+        <v>28250</v>
+      </c>
+      <c r="D82" s="24">
+        <v>28</v>
+      </c>
+      <c r="E82" s="24">
+        <v>28250</v>
+      </c>
+      <c r="F82" s="24">
+        <v>0</v>
+      </c>
+      <c r="G82" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83" s="24">
+        <v>1029</v>
+      </c>
+      <c r="C83" s="24">
+        <v>11248392</v>
+      </c>
+      <c r="D83" s="24">
+        <v>1029</v>
+      </c>
+      <c r="E83" s="24">
+        <v>11248392</v>
+      </c>
+      <c r="F83" s="24">
+        <v>0</v>
+      </c>
+      <c r="G83" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>392</v>
+      </c>
+      <c r="B84" s="24">
+        <v>981</v>
+      </c>
+      <c r="C84" s="24">
+        <v>225644</v>
+      </c>
+      <c r="D84" s="24">
+        <v>981</v>
+      </c>
+      <c r="E84" s="24">
+        <v>225644</v>
+      </c>
+      <c r="F84" s="24">
+        <v>0</v>
+      </c>
+      <c r="G84" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>393</v>
+      </c>
+      <c r="B85" s="24">
+        <v>862</v>
+      </c>
+      <c r="C85" s="24">
+        <v>2531971</v>
+      </c>
+      <c r="D85" s="24">
+        <v>862</v>
+      </c>
+      <c r="E85" s="24">
+        <v>2531971</v>
+      </c>
+      <c r="F85" s="24">
+        <v>0</v>
+      </c>
+      <c r="G85" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>394</v>
+      </c>
+      <c r="B86" s="24">
+        <v>0</v>
+      </c>
+      <c r="C86" s="24">
+        <v>0</v>
+      </c>
+      <c r="D86" s="24">
+        <v>0</v>
+      </c>
+      <c r="E86" s="24">
+        <v>0</v>
+      </c>
+      <c r="F86" s="24">
+        <v>0</v>
+      </c>
+      <c r="G86" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>398</v>
+      </c>
+      <c r="B87" s="24">
+        <v>1016</v>
+      </c>
+      <c r="C87" s="24">
+        <v>17822801</v>
+      </c>
+      <c r="D87" s="24">
+        <v>1016</v>
+      </c>
+      <c r="E87" s="24">
+        <v>17822801</v>
+      </c>
+      <c r="F87" s="24">
+        <v>0</v>
+      </c>
+      <c r="G87" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>396</v>
+      </c>
+      <c r="B88" s="24">
+        <v>1013</v>
+      </c>
+      <c r="C88" s="24">
+        <v>8099816</v>
+      </c>
+      <c r="D88" s="24">
+        <v>1013</v>
+      </c>
+      <c r="E88" s="24">
+        <v>8099816</v>
+      </c>
+      <c r="F88" s="24">
+        <v>0</v>
+      </c>
+      <c r="G88" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" s="24">
+        <v>550</v>
+      </c>
+      <c r="C89" s="24">
+        <v>16856139</v>
+      </c>
+      <c r="D89" s="24">
+        <v>550</v>
+      </c>
+      <c r="E89" s="24">
+        <v>16856139</v>
+      </c>
+      <c r="F89" s="24">
+        <v>0</v>
+      </c>
+      <c r="G89" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>404</v>
+      </c>
+      <c r="B90" s="24">
+        <v>962</v>
+      </c>
+      <c r="C90" s="24">
+        <v>2628570</v>
+      </c>
+      <c r="D90" s="24">
+        <v>962</v>
+      </c>
+      <c r="E90" s="24">
+        <v>2628570</v>
+      </c>
+      <c r="F90" s="24">
+        <v>0</v>
+      </c>
+      <c r="G90" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>408</v>
+      </c>
+      <c r="B91" s="24">
+        <v>5</v>
+      </c>
+      <c r="C91" s="24">
+        <v>39703</v>
+      </c>
+      <c r="D91" s="24">
+        <v>5</v>
+      </c>
+      <c r="E91" s="24">
+        <v>39703</v>
+      </c>
+      <c r="F91" s="24">
+        <v>0</v>
+      </c>
+      <c r="G91" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>400</v>
+      </c>
+      <c r="B92" s="24">
+        <v>55</v>
+      </c>
+      <c r="C92" s="24">
+        <v>70429</v>
+      </c>
+      <c r="D92" s="24">
+        <v>55</v>
+      </c>
+      <c r="E92" s="24">
+        <v>70429</v>
+      </c>
+      <c r="F92" s="24">
+        <v>0</v>
+      </c>
+      <c r="G92" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>402</v>
+      </c>
+      <c r="B93" s="24">
+        <v>450</v>
+      </c>
+      <c r="C93" s="24">
+        <v>39848</v>
+      </c>
+      <c r="D93" s="24">
+        <v>450</v>
+      </c>
+      <c r="E93" s="24">
+        <v>39848</v>
+      </c>
+      <c r="F93" s="24">
+        <v>0</v>
+      </c>
+      <c r="G93" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>406</v>
+      </c>
+      <c r="B94" s="24">
+        <v>287</v>
+      </c>
+      <c r="C94" s="24">
+        <v>1434929</v>
+      </c>
+      <c r="D94" s="24">
+        <v>287</v>
+      </c>
+      <c r="E94" s="24">
+        <v>1434929</v>
+      </c>
+      <c r="F94" s="24">
+        <v>0</v>
+      </c>
+      <c r="G94" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>410</v>
+      </c>
+      <c r="B95" s="24">
+        <v>1032</v>
+      </c>
+      <c r="C95" s="24">
+        <v>4080147</v>
+      </c>
+      <c r="D95" s="24">
+        <v>1032</v>
+      </c>
+      <c r="E95" s="24">
+        <v>4080147</v>
+      </c>
+      <c r="F95" s="24">
+        <v>0</v>
+      </c>
+      <c r="G95" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>414</v>
+      </c>
+      <c r="B96" s="24">
+        <v>840</v>
+      </c>
+      <c r="C96" s="24">
+        <v>18253889</v>
+      </c>
+      <c r="D96" s="24">
+        <v>700</v>
+      </c>
+      <c r="E96" s="24">
+        <v>18925151</v>
+      </c>
+      <c r="F96" s="24">
+        <v>140</v>
+      </c>
+      <c r="G96" s="24">
+        <v>-671262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>416</v>
+      </c>
+      <c r="B97" s="24">
+        <v>806</v>
+      </c>
+      <c r="C97" s="24">
+        <v>561514</v>
+      </c>
+      <c r="D97" s="24">
+        <v>806</v>
+      </c>
+      <c r="E97" s="24">
+        <v>561514</v>
+      </c>
+      <c r="F97" s="24">
+        <v>0</v>
+      </c>
+      <c r="G97" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>420</v>
+      </c>
+      <c r="B98" s="24">
+        <v>272</v>
+      </c>
+      <c r="C98" s="24">
+        <v>812903</v>
+      </c>
+      <c r="D98" s="24">
+        <v>272</v>
+      </c>
+      <c r="E98" s="24">
+        <v>812903</v>
+      </c>
+      <c r="F98" s="24">
+        <v>0</v>
+      </c>
+      <c r="G98" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>422</v>
+      </c>
+      <c r="B99" s="24">
+        <v>1024</v>
+      </c>
+      <c r="C99" s="24">
+        <v>94627810</v>
+      </c>
+      <c r="D99" s="24">
+        <v>1024</v>
+      </c>
+      <c r="E99" s="24">
+        <v>94627810</v>
+      </c>
+      <c r="F99" s="24">
+        <v>0</v>
+      </c>
+      <c r="G99" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>424</v>
+      </c>
+      <c r="B100" s="24">
+        <v>74</v>
+      </c>
+      <c r="C100" s="24">
+        <v>694178</v>
+      </c>
+      <c r="D100" s="24">
+        <v>74</v>
+      </c>
+      <c r="E100" s="24">
+        <v>694178</v>
+      </c>
+      <c r="F100" s="24">
+        <v>0</v>
+      </c>
+      <c r="G100" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>426</v>
+      </c>
+      <c r="B101" s="24">
+        <v>724</v>
+      </c>
+      <c r="C101" s="24">
+        <v>17570772</v>
+      </c>
+      <c r="D101" s="24">
+        <v>724</v>
+      </c>
+      <c r="E101" s="24">
+        <v>17570772</v>
+      </c>
+      <c r="F101" s="24">
+        <v>0</v>
+      </c>
+      <c r="G101" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>432</v>
+      </c>
+      <c r="B102" s="24">
+        <v>40</v>
+      </c>
+      <c r="C102" s="24">
+        <v>142749</v>
+      </c>
+      <c r="D102" s="24">
+        <v>40</v>
+      </c>
+      <c r="E102" s="24">
+        <v>142749</v>
+      </c>
+      <c r="F102" s="24">
+        <v>0</v>
+      </c>
+      <c r="G102" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>428</v>
+      </c>
+      <c r="B103" s="24">
+        <v>341</v>
+      </c>
+      <c r="C103" s="24">
+        <v>73982</v>
+      </c>
+      <c r="D103" s="24">
+        <v>341</v>
+      </c>
+      <c r="E103" s="24">
+        <v>73982</v>
+      </c>
+      <c r="F103" s="24">
+        <v>0</v>
+      </c>
+      <c r="G103" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>430</v>
+      </c>
+      <c r="B104" s="24">
+        <v>145</v>
+      </c>
+      <c r="C104" s="24">
+        <v>36874</v>
+      </c>
+      <c r="D104" s="24">
+        <v>145</v>
+      </c>
+      <c r="E104" s="24">
+        <v>36874</v>
+      </c>
+      <c r="F104" s="24">
+        <v>0</v>
+      </c>
+      <c r="G104" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>438</v>
+      </c>
+      <c r="B105" s="24">
+        <v>475</v>
+      </c>
+      <c r="C105" s="24">
+        <v>576984</v>
+      </c>
+      <c r="D105" s="24">
+        <v>475</v>
+      </c>
+      <c r="E105" s="24">
+        <v>576984</v>
+      </c>
+      <c r="F105" s="24">
+        <v>0</v>
+      </c>
+      <c r="G105" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>442</v>
+      </c>
+      <c r="B106" s="24">
+        <v>323</v>
+      </c>
+      <c r="C106" s="24">
+        <v>338115</v>
+      </c>
+      <c r="D106" s="24">
+        <v>323</v>
+      </c>
+      <c r="E106" s="24">
+        <v>338115</v>
+      </c>
+      <c r="F106" s="24">
+        <v>0</v>
+      </c>
+      <c r="G106" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>444</v>
+      </c>
+      <c r="B107" s="24">
+        <v>846</v>
+      </c>
+      <c r="C107" s="24">
+        <v>1450463</v>
+      </c>
+      <c r="D107" s="24">
+        <v>846</v>
+      </c>
+      <c r="E107" s="24">
+        <v>1450463</v>
+      </c>
+      <c r="F107" s="24">
+        <v>0</v>
+      </c>
+      <c r="G107" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>446</v>
+      </c>
+      <c r="B108" s="24">
+        <v>474</v>
+      </c>
+      <c r="C108" s="24">
+        <v>412324</v>
+      </c>
+      <c r="D108" s="24">
+        <v>474</v>
+      </c>
+      <c r="E108" s="24">
+        <v>412324</v>
+      </c>
+      <c r="F108" s="24">
+        <v>0</v>
+      </c>
+      <c r="G108" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>452</v>
+      </c>
+      <c r="B109" s="24">
+        <v>844</v>
+      </c>
+      <c r="C109" s="24">
+        <v>2933113</v>
+      </c>
+      <c r="D109" s="24">
+        <v>844</v>
+      </c>
+      <c r="E109" s="24">
+        <v>2933113</v>
+      </c>
+      <c r="F109" s="24">
+        <v>0</v>
+      </c>
+      <c r="G109" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>448</v>
+      </c>
+      <c r="B110" s="24">
+        <v>767</v>
+      </c>
+      <c r="C110" s="24">
+        <v>2429092</v>
+      </c>
+      <c r="D110" s="24">
+        <v>767</v>
+      </c>
+      <c r="E110" s="24">
+        <v>2429092</v>
+      </c>
+      <c r="F110" s="24">
+        <v>0</v>
+      </c>
+      <c r="G110" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>454</v>
+      </c>
+      <c r="B111" s="24">
+        <v>825</v>
+      </c>
+      <c r="C111" s="24">
+        <v>14767281</v>
+      </c>
+      <c r="D111" s="24">
+        <v>825</v>
+      </c>
+      <c r="E111" s="24">
+        <v>14767281</v>
+      </c>
+      <c r="F111" s="24">
+        <v>0</v>
+      </c>
+      <c r="G111" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>450</v>
+      </c>
+      <c r="B112" s="24">
+        <v>807</v>
+      </c>
+      <c r="C112" s="24">
+        <v>11461209</v>
+      </c>
+      <c r="D112" s="24">
+        <v>807</v>
+      </c>
+      <c r="E112" s="24">
+        <v>11461209</v>
+      </c>
+      <c r="F112" s="24">
+        <v>0</v>
+      </c>
+      <c r="G112" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>468</v>
+      </c>
+      <c r="B113" s="24">
+        <v>84</v>
+      </c>
+      <c r="C113" s="24">
+        <v>13826</v>
+      </c>
+      <c r="D113" s="24">
+        <v>84</v>
+      </c>
+      <c r="E113" s="24">
+        <v>13826</v>
+      </c>
+      <c r="F113" s="24">
+        <v>0</v>
+      </c>
+      <c r="G113" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>456</v>
+      </c>
+      <c r="B114" s="24">
+        <v>174</v>
+      </c>
+      <c r="C114" s="24">
+        <v>12344</v>
+      </c>
+      <c r="D114" s="24">
+        <v>174</v>
+      </c>
+      <c r="E114" s="24">
+        <v>12344</v>
+      </c>
+      <c r="F114" s="24">
+        <v>0</v>
+      </c>
+      <c r="G114" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>462</v>
+      </c>
+      <c r="B115" s="24">
+        <v>286</v>
+      </c>
+      <c r="C115" s="24">
+        <v>676536</v>
+      </c>
+      <c r="D115" s="24">
+        <v>286</v>
+      </c>
+      <c r="E115" s="24">
+        <v>676536</v>
+      </c>
+      <c r="F115" s="24">
+        <v>0</v>
+      </c>
+      <c r="G115" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>458</v>
+      </c>
+      <c r="B116" s="24">
+        <v>294</v>
+      </c>
+      <c r="C116" s="24">
+        <v>2672758</v>
+      </c>
+      <c r="D116" s="24">
+        <v>294</v>
+      </c>
+      <c r="E116" s="24">
+        <v>2672758</v>
+      </c>
+      <c r="F116" s="24">
+        <v>0</v>
+      </c>
+      <c r="G116" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>464</v>
+      </c>
+      <c r="B117" s="24">
+        <v>380</v>
+      </c>
+      <c r="C117" s="24">
+        <v>6062112</v>
+      </c>
+      <c r="D117" s="24">
+        <v>380</v>
+      </c>
+      <c r="E117" s="24">
+        <v>6062112</v>
+      </c>
+      <c r="F117" s="24">
+        <v>0</v>
+      </c>
+      <c r="G117" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>460</v>
+      </c>
+      <c r="B118" s="24">
+        <v>413</v>
+      </c>
+      <c r="C118" s="24">
+        <v>19110813</v>
+      </c>
+      <c r="D118" s="24">
+        <v>413</v>
+      </c>
+      <c r="E118" s="24">
+        <v>19110813</v>
+      </c>
+      <c r="F118" s="24">
+        <v>0</v>
+      </c>
+      <c r="G118" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>466</v>
+      </c>
+      <c r="B119" s="24">
+        <v>1120</v>
+      </c>
+      <c r="C119" s="24">
+        <v>11208658</v>
+      </c>
+      <c r="D119" s="24">
+        <v>620</v>
+      </c>
+      <c r="E119" s="24">
+        <v>27417986</v>
+      </c>
+      <c r="F119" s="24">
+        <v>500</v>
+      </c>
+      <c r="G119" s="24">
+        <v>-16209328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B120" s="24">
+        <v>237</v>
+      </c>
+      <c r="C120" s="24">
+        <v>2391561</v>
+      </c>
+      <c r="D120" s="24">
+        <v>237</v>
+      </c>
+      <c r="E120" s="24">
+        <v>2391561</v>
+      </c>
+      <c r="F120" s="24">
+        <v>0</v>
+      </c>
+      <c r="G120" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" s="24">
+        <v>196</v>
+      </c>
+      <c r="C121" s="24">
+        <v>2534665</v>
+      </c>
+      <c r="D121" s="24">
+        <v>196</v>
+      </c>
+      <c r="E121" s="24">
+        <v>2534665</v>
+      </c>
+      <c r="F121" s="24">
+        <v>0</v>
+      </c>
+      <c r="G121" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>474</v>
+      </c>
+      <c r="B122" s="24">
+        <v>15</v>
+      </c>
+      <c r="C122" s="24">
+        <v>73520</v>
+      </c>
+      <c r="D122" s="24">
+        <v>15</v>
+      </c>
+      <c r="E122" s="24">
+        <v>73520</v>
+      </c>
+      <c r="F122" s="24">
+        <v>0</v>
+      </c>
+      <c r="G122" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>476</v>
+      </c>
+      <c r="B123" s="24">
+        <v>334</v>
+      </c>
+      <c r="C123" s="24">
+        <v>30204</v>
+      </c>
+      <c r="D123" s="24">
+        <v>334</v>
+      </c>
+      <c r="E123" s="24">
+        <v>30204</v>
+      </c>
+      <c r="F123" s="24">
+        <v>0</v>
+      </c>
+      <c r="G123" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>478</v>
+      </c>
+      <c r="B124" s="24">
+        <v>118</v>
+      </c>
+      <c r="C124" s="24">
+        <v>6426</v>
+      </c>
+      <c r="D124" s="24">
+        <v>118</v>
+      </c>
+      <c r="E124" s="24">
+        <v>6426</v>
+      </c>
+      <c r="F124" s="24">
+        <v>0</v>
+      </c>
+      <c r="G124" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>480</v>
+      </c>
+      <c r="B125" s="24">
+        <v>0</v>
+      </c>
+      <c r="C125" s="24">
+        <v>0</v>
+      </c>
+      <c r="D125" s="24">
+        <v>0</v>
+      </c>
+      <c r="E125" s="24">
+        <v>0</v>
+      </c>
+      <c r="F125" s="24">
+        <v>0</v>
+      </c>
+      <c r="G125" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>482</v>
+      </c>
+      <c r="B126" s="24">
+        <v>0</v>
+      </c>
+      <c r="C126" s="24">
+        <v>0</v>
+      </c>
+      <c r="D126" s="24">
+        <v>0</v>
+      </c>
+      <c r="E126" s="24">
+        <v>0</v>
+      </c>
+      <c r="F126" s="24">
+        <v>0</v>
+      </c>
+      <c r="G126" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>484</v>
+      </c>
+      <c r="B127" s="24">
+        <v>358</v>
+      </c>
+      <c r="C127" s="24">
+        <v>84298</v>
+      </c>
+      <c r="D127" s="24">
+        <v>358</v>
+      </c>
+      <c r="E127" s="24">
+        <v>84298</v>
+      </c>
+      <c r="F127" s="24">
+        <v>0</v>
+      </c>
+      <c r="G127" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>486</v>
+      </c>
+      <c r="B128" s="24">
+        <v>374</v>
+      </c>
+      <c r="C128" s="24">
+        <v>135220</v>
+      </c>
+      <c r="D128" s="24">
+        <v>374</v>
+      </c>
+      <c r="E128" s="24">
+        <v>135220</v>
+      </c>
+      <c r="F128" s="24">
+        <v>0</v>
+      </c>
+      <c r="G128" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>488</v>
+      </c>
+      <c r="B129" s="24">
+        <v>42</v>
+      </c>
+      <c r="C129" s="24">
+        <v>8203</v>
+      </c>
+      <c r="D129" s="24">
+        <v>42</v>
+      </c>
+      <c r="E129" s="24">
+        <v>8203</v>
+      </c>
+      <c r="F129" s="24">
+        <v>0</v>
+      </c>
+      <c r="G129" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>490</v>
+      </c>
+      <c r="B130" s="24">
+        <v>295</v>
+      </c>
+      <c r="C130" s="24">
+        <v>32457</v>
+      </c>
+      <c r="D130" s="24">
+        <v>295</v>
+      </c>
+      <c r="E130" s="24">
+        <v>32457</v>
+      </c>
+      <c r="F130" s="24">
+        <v>0</v>
+      </c>
+      <c r="G130" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>492</v>
+      </c>
+      <c r="B131" s="24">
+        <v>923</v>
+      </c>
+      <c r="C131" s="24">
+        <v>7836767</v>
+      </c>
+      <c r="D131" s="24">
+        <v>923</v>
+      </c>
+      <c r="E131" s="24">
+        <v>7836767</v>
+      </c>
+      <c r="F131" s="24">
+        <v>0</v>
+      </c>
+      <c r="G131" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>494</v>
+      </c>
+      <c r="B132" s="24">
+        <v>69</v>
+      </c>
+      <c r="C132" s="24">
+        <v>391938</v>
+      </c>
+      <c r="D132" s="24">
+        <v>69</v>
+      </c>
+      <c r="E132" s="24">
+        <v>391938</v>
+      </c>
+      <c r="F132" s="24">
+        <v>0</v>
+      </c>
+      <c r="G132" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>347</v>
+      </c>
+      <c r="B133" s="24">
+        <v>0</v>
+      </c>
+      <c r="C133" s="24">
+        <v>0</v>
+      </c>
+      <c r="D133" s="24">
+        <v>0</v>
+      </c>
+      <c r="E133" s="24">
+        <v>0</v>
+      </c>
+      <c r="F133" s="24">
+        <v>0</v>
+      </c>
+      <c r="G133" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>349</v>
+      </c>
+      <c r="B134" s="24">
+        <v>0</v>
+      </c>
+      <c r="C134" s="24">
+        <v>0</v>
+      </c>
+      <c r="D134" s="24">
+        <v>0</v>
+      </c>
+      <c r="E134" s="24">
+        <v>0</v>
+      </c>
+      <c r="F134" s="24">
+        <v>0</v>
+      </c>
+      <c r="G134" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>351</v>
+      </c>
+      <c r="B135" s="24">
+        <v>0</v>
+      </c>
+      <c r="C135" s="24">
+        <v>0</v>
+      </c>
+      <c r="D135" s="24">
+        <v>0</v>
+      </c>
+      <c r="E135" s="24">
+        <v>0</v>
+      </c>
+      <c r="F135" s="24">
+        <v>0</v>
+      </c>
+      <c r="G135" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>353</v>
+      </c>
+      <c r="B136" s="24">
+        <v>0</v>
+      </c>
+      <c r="C136" s="24">
+        <v>0</v>
+      </c>
+      <c r="D136" s="24">
+        <v>0</v>
+      </c>
+      <c r="E136" s="24">
+        <v>0</v>
+      </c>
+      <c r="F136" s="24">
+        <v>0</v>
+      </c>
+      <c r="G136" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>500</v>
+      </c>
+      <c r="B137" s="24">
+        <v>1042</v>
+      </c>
+      <c r="C137" s="24">
+        <v>105444557</v>
+      </c>
+      <c r="D137" s="24">
+        <v>918</v>
+      </c>
+      <c r="E137" s="24">
+        <v>114376087</v>
+      </c>
+      <c r="F137" s="24">
+        <v>124</v>
+      </c>
+      <c r="G137" s="24">
+        <v>-8931530</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>502</v>
+      </c>
+      <c r="B138" s="24">
+        <v>1039</v>
+      </c>
+      <c r="C138" s="24">
+        <v>120688753</v>
+      </c>
+      <c r="D138" s="24">
+        <v>969</v>
+      </c>
+      <c r="E138" s="24">
+        <v>122192896</v>
+      </c>
+      <c r="F138" s="24">
+        <v>70</v>
+      </c>
+      <c r="G138" s="24">
+        <v>-1504143</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>506</v>
+      </c>
+      <c r="B139" s="24">
+        <v>961</v>
+      </c>
+      <c r="C139" s="24">
+        <v>90850892</v>
+      </c>
+      <c r="D139" s="24">
+        <v>961</v>
+      </c>
+      <c r="E139" s="24">
+        <v>90850892</v>
+      </c>
+      <c r="F139" s="24">
+        <v>0</v>
+      </c>
+      <c r="G139" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>508</v>
+      </c>
+      <c r="B140" s="24">
+        <v>239</v>
+      </c>
+      <c r="C140" s="24">
+        <v>779430</v>
+      </c>
+      <c r="D140" s="24">
+        <v>239</v>
+      </c>
+      <c r="E140" s="24">
+        <v>779430</v>
+      </c>
+      <c r="F140" s="24">
+        <v>0</v>
+      </c>
+      <c r="G140" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>510</v>
+      </c>
+      <c r="B141" s="24">
+        <v>961</v>
+      </c>
+      <c r="C141" s="24">
+        <v>91614273</v>
+      </c>
+      <c r="D141" s="24">
+        <v>961</v>
+      </c>
+      <c r="E141" s="24">
+        <v>91614273</v>
+      </c>
+      <c r="F141" s="24">
+        <v>0</v>
+      </c>
+      <c r="G141" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>504</v>
+      </c>
+      <c r="B142" s="24">
+        <v>796</v>
+      </c>
+      <c r="C142" s="24">
+        <v>1756039</v>
+      </c>
+      <c r="D142" s="24">
+        <v>796</v>
+      </c>
+      <c r="E142" s="24">
+        <v>1756039</v>
+      </c>
+      <c r="F142" s="24">
+        <v>0</v>
+      </c>
+      <c r="G142" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>516</v>
+      </c>
+      <c r="B143" s="24">
+        <v>896</v>
+      </c>
+      <c r="C143" s="24">
+        <v>4369018</v>
+      </c>
+      <c r="D143" s="24">
+        <v>896</v>
+      </c>
+      <c r="E143" s="24">
+        <v>4369018</v>
+      </c>
+      <c r="F143" s="24">
+        <v>0</v>
+      </c>
+      <c r="G143" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>518</v>
+      </c>
+      <c r="B144" s="24">
+        <v>175</v>
+      </c>
+      <c r="C144" s="24">
+        <v>302631</v>
+      </c>
+      <c r="D144" s="24">
+        <v>175</v>
+      </c>
+      <c r="E144" s="24">
+        <v>302631</v>
+      </c>
+      <c r="F144" s="24">
+        <v>0</v>
+      </c>
+      <c r="G144" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>536</v>
+      </c>
+      <c r="B145" s="24">
+        <v>866</v>
+      </c>
+      <c r="C145" s="24">
+        <v>-4566307</v>
+      </c>
+      <c r="D145" s="24">
+        <v>459</v>
+      </c>
+      <c r="E145" s="24">
+        <v>4980581</v>
+      </c>
+      <c r="F145" s="24">
+        <v>407</v>
+      </c>
+      <c r="G145" s="24">
+        <v>-9546888</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>538</v>
+      </c>
+      <c r="B146" s="24">
+        <v>978</v>
+      </c>
+      <c r="C146" s="24">
+        <v>70548573</v>
+      </c>
+      <c r="D146" s="24">
+        <v>793</v>
+      </c>
+      <c r="E146" s="24">
+        <v>70779570</v>
+      </c>
+      <c r="F146" s="24">
+        <v>185</v>
+      </c>
+      <c r="G146" s="24">
+        <v>-230997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>540</v>
+      </c>
+      <c r="B147" s="24">
+        <v>1002</v>
+      </c>
+      <c r="C147" s="24">
+        <v>94673724</v>
+      </c>
+      <c r="D147" s="24">
+        <v>996</v>
+      </c>
+      <c r="E147" s="24">
+        <v>94744946</v>
+      </c>
+      <c r="F147" s="24">
+        <v>6</v>
+      </c>
+      <c r="G147" s="24">
+        <v>-71222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>542</v>
+      </c>
+      <c r="B148" s="24">
+        <v>943</v>
+      </c>
+      <c r="C148" s="24">
+        <v>10168163</v>
+      </c>
+      <c r="D148" s="24">
+        <v>943</v>
+      </c>
+      <c r="E148" s="24">
+        <v>10168163</v>
+      </c>
+      <c r="F148" s="24">
+        <v>0</v>
+      </c>
+      <c r="G148" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>544</v>
+      </c>
+      <c r="B149" s="24">
+        <v>0</v>
+      </c>
+      <c r="C149" s="24">
+        <v>0</v>
+      </c>
+      <c r="D149" s="24">
+        <v>0</v>
+      </c>
+      <c r="E149" s="24">
+        <v>0</v>
+      </c>
+      <c r="F149" s="24">
+        <v>0</v>
+      </c>
+      <c r="G149" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>546</v>
+      </c>
+      <c r="B150" s="24">
+        <v>0</v>
+      </c>
+      <c r="C150" s="24">
+        <v>0</v>
+      </c>
+      <c r="D150" s="24">
+        <v>0</v>
+      </c>
+      <c r="E150" s="24">
+        <v>0</v>
+      </c>
+      <c r="F150" s="24">
+        <v>0</v>
+      </c>
+      <c r="G150" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>548</v>
+      </c>
+      <c r="B151" s="24">
+        <v>0</v>
+      </c>
+      <c r="C151" s="24">
+        <v>0</v>
+      </c>
+      <c r="D151" s="24">
+        <v>0</v>
+      </c>
+      <c r="E151" s="24">
+        <v>0</v>
+      </c>
+      <c r="F151" s="24">
+        <v>0</v>
+      </c>
+      <c r="G151" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>550</v>
+      </c>
+      <c r="B152" s="24">
+        <v>0</v>
+      </c>
+      <c r="C152" s="24">
+        <v>0</v>
+      </c>
+      <c r="D152" s="24">
+        <v>0</v>
+      </c>
+      <c r="E152" s="24">
+        <v>0</v>
+      </c>
+      <c r="F152" s="24">
+        <v>0</v>
+      </c>
+      <c r="G152" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>552</v>
+      </c>
+      <c r="B153" s="24">
+        <v>0</v>
+      </c>
+      <c r="C153" s="24">
+        <v>0</v>
+      </c>
+      <c r="D153" s="24">
+        <v>0</v>
+      </c>
+      <c r="E153" s="24">
+        <v>0</v>
+      </c>
+      <c r="F153" s="24">
+        <v>0</v>
+      </c>
+      <c r="G153" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>554</v>
+      </c>
+      <c r="B154" s="24">
+        <v>0</v>
+      </c>
+      <c r="C154" s="24">
+        <v>0</v>
+      </c>
+      <c r="D154" s="24">
+        <v>0</v>
+      </c>
+      <c r="E154" s="24">
+        <v>0</v>
+      </c>
+      <c r="F154" s="24">
+        <v>0</v>
+      </c>
+      <c r="G154" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>556</v>
+      </c>
+      <c r="B155" s="24">
+        <v>0</v>
+      </c>
+      <c r="C155" s="24">
+        <v>0</v>
+      </c>
+      <c r="D155" s="24">
+        <v>0</v>
+      </c>
+      <c r="E155" s="24">
+        <v>0</v>
+      </c>
+      <c r="F155" s="24">
+        <v>0</v>
+      </c>
+      <c r="G155" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>528</v>
+      </c>
+      <c r="B156" s="24">
+        <v>0</v>
+      </c>
+      <c r="C156" s="24">
+        <v>0</v>
+      </c>
+      <c r="D156" s="24">
+        <v>0</v>
+      </c>
+      <c r="E156" s="24">
+        <v>0</v>
+      </c>
+      <c r="F156" s="24">
+        <v>0</v>
+      </c>
+      <c r="G156" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>530</v>
+      </c>
+      <c r="B157" s="24">
+        <v>0</v>
+      </c>
+      <c r="C157" s="24">
+        <v>0</v>
+      </c>
+      <c r="D157" s="24">
+        <v>0</v>
+      </c>
+      <c r="E157" s="24">
+        <v>0</v>
+      </c>
+      <c r="F157" s="24">
+        <v>0</v>
+      </c>
+      <c r="G157" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>532</v>
+      </c>
+      <c r="B158" s="24">
+        <v>0</v>
+      </c>
+      <c r="C158" s="24">
+        <v>0</v>
+      </c>
+      <c r="D158" s="24">
+        <v>0</v>
+      </c>
+      <c r="E158" s="24">
+        <v>0</v>
+      </c>
+      <c r="F158" s="24">
+        <v>0</v>
+      </c>
+      <c r="G158" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>280</v>
+      </c>
+      <c r="B159" s="24">
+        <v>1233</v>
+      </c>
+      <c r="C159" s="24">
+        <v>29775729</v>
+      </c>
+      <c r="D159" s="24">
+        <v>1233</v>
+      </c>
+      <c r="E159" s="24">
+        <v>29775729</v>
+      </c>
+      <c r="F159" s="24">
+        <v>0</v>
+      </c>
+      <c r="G159" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="24">
+        <v>49</v>
+      </c>
+      <c r="C160" s="24">
+        <v>12785</v>
+      </c>
+      <c r="D160" s="24">
+        <v>49</v>
+      </c>
+      <c r="E160" s="24">
+        <v>12785</v>
+      </c>
+      <c r="F160" s="24">
+        <v>0</v>
+      </c>
+      <c r="G160" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>412</v>
+      </c>
+      <c r="B161" s="24">
+        <v>1064</v>
+      </c>
+      <c r="C161" s="24">
+        <v>20213</v>
+      </c>
+      <c r="D161" s="24">
+        <v>383</v>
+      </c>
+      <c r="E161" s="24">
+        <v>5995693</v>
+      </c>
+      <c r="F161" s="24">
+        <v>681</v>
+      </c>
+      <c r="G161" s="24">
+        <v>-5975480</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>418</v>
+      </c>
+      <c r="B162" s="24">
+        <v>1156</v>
+      </c>
+      <c r="C162" s="24">
+        <v>81700406</v>
+      </c>
+      <c r="D162" s="24">
+        <v>1026</v>
+      </c>
+      <c r="E162" s="24">
+        <v>84631167</v>
+      </c>
+      <c r="F162" s="24">
+        <v>130</v>
+      </c>
+      <c r="G162" s="24">
+        <v>-2930761</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>434</v>
+      </c>
+      <c r="B163" s="24">
+        <v>914</v>
+      </c>
+      <c r="C163" s="24">
+        <v>3121887</v>
+      </c>
+      <c r="D163" s="24">
+        <v>914</v>
+      </c>
+      <c r="E163" s="24">
+        <v>3121887</v>
+      </c>
+      <c r="F163" s="24">
+        <v>0</v>
+      </c>
+      <c r="G163" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>436</v>
+      </c>
+      <c r="B164" s="24">
+        <v>798</v>
+      </c>
+      <c r="C164" s="24">
+        <v>2081887</v>
+      </c>
+      <c r="D164" s="24">
+        <v>798</v>
+      </c>
+      <c r="E164" s="24">
+        <v>2081887</v>
+      </c>
+      <c r="F164" s="24">
+        <v>0</v>
+      </c>
+      <c r="G164" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>440</v>
+      </c>
+      <c r="B165" s="24">
+        <v>921</v>
+      </c>
+      <c r="C165" s="24">
+        <v>1039999</v>
+      </c>
+      <c r="D165" s="24">
+        <v>673</v>
+      </c>
+      <c r="E165" s="24">
+        <v>1304500</v>
+      </c>
+      <c r="F165" s="24">
+        <v>248</v>
+      </c>
+      <c r="G165" s="24">
+        <v>-264501</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>524</v>
+      </c>
+      <c r="B166" s="24">
+        <v>13</v>
+      </c>
+      <c r="C166" s="24">
+        <v>224828</v>
+      </c>
+      <c r="D166" s="24">
+        <v>13</v>
+      </c>
+      <c r="E166" s="24">
+        <v>224828</v>
+      </c>
+      <c r="F166" s="24">
+        <v>0</v>
+      </c>
+      <c r="G166" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>496</v>
+      </c>
+      <c r="B167" s="24">
+        <v>316</v>
+      </c>
+      <c r="C167" s="24">
+        <v>7290565</v>
+      </c>
+      <c r="D167" s="24">
+        <v>234</v>
+      </c>
+      <c r="E167" s="24">
+        <v>7367849</v>
+      </c>
+      <c r="F167" s="24">
+        <v>82</v>
+      </c>
+      <c r="G167" s="24">
+        <v>-77284</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>498</v>
+      </c>
+      <c r="B168" s="24">
+        <v>1031</v>
+      </c>
+      <c r="C168" s="24">
+        <v>11789231</v>
+      </c>
+      <c r="D168" s="24">
+        <v>979</v>
+      </c>
+      <c r="E168" s="24">
+        <v>12238362</v>
+      </c>
+      <c r="F168" s="24">
+        <v>52</v>
+      </c>
+      <c r="G168" s="24">
+        <v>-449131</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>512</v>
+      </c>
+      <c r="B169" s="24">
+        <v>946</v>
+      </c>
+      <c r="C169" s="24">
+        <v>10621677</v>
+      </c>
+      <c r="D169" s="24">
+        <v>946</v>
+      </c>
+      <c r="E169" s="24">
+        <v>10621677</v>
+      </c>
+      <c r="F169" s="24">
+        <v>0</v>
+      </c>
+      <c r="G169" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>514</v>
+      </c>
+      <c r="B170" s="24">
+        <v>973</v>
+      </c>
+      <c r="C170" s="24">
+        <v>4588744</v>
+      </c>
+      <c r="D170" s="24">
+        <v>973</v>
+      </c>
+      <c r="E170" s="24">
+        <v>4588744</v>
+      </c>
+      <c r="F170" s="24">
+        <v>0</v>
+      </c>
+      <c r="G170" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>534</v>
+      </c>
+      <c r="B171" s="24">
+        <v>0</v>
+      </c>
+      <c r="C171" s="24">
+        <v>0</v>
+      </c>
+      <c r="D171" s="24">
+        <v>0</v>
+      </c>
+      <c r="E171" s="24">
+        <v>0</v>
+      </c>
+      <c r="F171" s="24">
+        <v>0</v>
+      </c>
+      <c r="G171" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>526</v>
+      </c>
+      <c r="B172" s="24">
+        <v>0</v>
+      </c>
+      <c r="C172" s="24">
+        <v>0</v>
+      </c>
+      <c r="D172" s="24">
+        <v>0</v>
+      </c>
+      <c r="E172" s="24">
+        <v>0</v>
+      </c>
+      <c r="F172" s="24">
+        <v>0</v>
+      </c>
+      <c r="G172" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>522</v>
+      </c>
+      <c r="B173" s="24">
+        <v>14</v>
+      </c>
+      <c r="C173" s="24">
+        <v>357372</v>
+      </c>
+      <c r="D173" s="24">
+        <v>14</v>
+      </c>
+      <c r="E173" s="24">
+        <v>357372</v>
+      </c>
+      <c r="F173" s="24">
+        <v>0</v>
+      </c>
+      <c r="G173" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>520</v>
+      </c>
+      <c r="B174" s="24">
+        <v>21</v>
+      </c>
+      <c r="C174" s="24">
+        <v>366648</v>
+      </c>
+      <c r="D174" s="24">
+        <v>21</v>
+      </c>
+      <c r="E174" s="24">
+        <v>366648</v>
+      </c>
+      <c r="F174" s="24">
+        <v>0</v>
+      </c>
+      <c r="G174" s="24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C7CBA3-1FC2-4FF3-9E93-E10BA2D7D864}">
   <dimension ref="A5:M199"/>
   <sheetViews>
@@ -3960,7 +8672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868B7414-DF52-4650-88B9-A6BD2821B4CE}">
   <dimension ref="B4:E187"/>
   <sheetViews>
@@ -5581,7 +10293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA4CFB6-76E5-492E-A8E5-6DB377A61AE3}">
   <dimension ref="B2:E185"/>
   <sheetViews>
@@ -7208,11 +11920,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9E265E-DBF1-4ED9-9F96-D28458999685}">
   <dimension ref="A2:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9208,4 +13920,2573 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41686B85-ACEC-4608-8A54-28857B312A48}">
+  <dimension ref="A1:E176"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="24">
+        <v>10210310102</v>
+      </c>
+      <c r="D4" s="24">
+        <v>10250806707</v>
+      </c>
+      <c r="E4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="24">
+        <v>7112222959</v>
+      </c>
+      <c r="D5" s="24">
+        <v>7156290560</v>
+      </c>
+      <c r="E5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="24">
+        <v>95881223</v>
+      </c>
+      <c r="D6" s="24">
+        <v>97848813</v>
+      </c>
+      <c r="E6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="24">
+        <v>61871455</v>
+      </c>
+      <c r="D7" s="24">
+        <v>61627838</v>
+      </c>
+      <c r="E7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="24">
+        <v>260252720</v>
+      </c>
+      <c r="D8" s="24">
+        <v>260935219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="24">
+        <v>203187788</v>
+      </c>
+      <c r="D9" s="24">
+        <v>204023195</v>
+      </c>
+      <c r="E9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="24">
+        <v>31110732</v>
+      </c>
+      <c r="D10" s="24">
+        <v>31377542</v>
+      </c>
+      <c r="E10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="24">
+        <v>10077086</v>
+      </c>
+      <c r="D11" s="24">
+        <v>8668356</v>
+      </c>
+      <c r="E11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="24">
+        <v>331814301</v>
+      </c>
+      <c r="D12" s="24">
+        <v>332448509</v>
+      </c>
+      <c r="E12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="24">
+        <v>694951773</v>
+      </c>
+      <c r="D13" s="24">
+        <v>701378976</v>
+      </c>
+      <c r="E13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="24">
+        <v>11563203</v>
+      </c>
+      <c r="D14" s="24">
+        <v>11767492</v>
+      </c>
+      <c r="E14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="24">
+        <v>11943053</v>
+      </c>
+      <c r="D15" s="24">
+        <v>11473322</v>
+      </c>
+      <c r="E15" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="24">
+        <v>253213041</v>
+      </c>
+      <c r="D16" s="24">
+        <v>251817040</v>
+      </c>
+      <c r="E16" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1169067147</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1178862645</v>
+      </c>
+      <c r="E17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="24">
+        <v>689991999</v>
+      </c>
+      <c r="D18" s="24">
+        <v>692994698</v>
+      </c>
+      <c r="E18" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="24">
+        <v>713237701</v>
+      </c>
+      <c r="D19" s="24">
+        <v>717687870</v>
+      </c>
+      <c r="E19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="24">
+        <v>-13963784</v>
+      </c>
+      <c r="D20" s="24">
+        <v>-15637254</v>
+      </c>
+      <c r="E20" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="24">
+        <v>27225383</v>
+      </c>
+      <c r="D21" s="24">
+        <v>26665546</v>
+      </c>
+      <c r="E21" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="24">
+        <v>605152093</v>
+      </c>
+      <c r="D22" s="24">
+        <v>604770469</v>
+      </c>
+      <c r="E22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="24">
+        <v>277411075</v>
+      </c>
+      <c r="D23" s="24">
+        <v>276960978</v>
+      </c>
+      <c r="E23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="24">
+        <v>13043934</v>
+      </c>
+      <c r="D24" s="24">
+        <v>12982781</v>
+      </c>
+      <c r="E24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="24">
+        <v>13438377</v>
+      </c>
+      <c r="D25" s="24">
+        <v>13550865</v>
+      </c>
+      <c r="E25" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="24">
+        <v>950200</v>
+      </c>
+      <c r="D26" s="24">
+        <v>951914</v>
+      </c>
+      <c r="E26" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="24">
+        <v>3918501</v>
+      </c>
+      <c r="D27" s="24">
+        <v>3937431</v>
+      </c>
+      <c r="E27" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="24">
+        <v>12791597</v>
+      </c>
+      <c r="D28" s="24">
+        <v>13242079</v>
+      </c>
+      <c r="E28" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="24">
+        <v>30106835</v>
+      </c>
+      <c r="D29" s="24">
+        <v>30060849</v>
+      </c>
+      <c r="E29" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="24">
+        <v>28852216</v>
+      </c>
+      <c r="D30" s="24">
+        <v>28612926</v>
+      </c>
+      <c r="E30" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="24">
+        <v>4322792</v>
+      </c>
+      <c r="D31" s="24">
+        <v>4330722</v>
+      </c>
+      <c r="E31" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="24">
+        <v>24378156</v>
+      </c>
+      <c r="D32" s="24">
+        <v>24245662</v>
+      </c>
+      <c r="E32" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C33" s="24">
+        <v>76848</v>
+      </c>
+      <c r="D33" s="24">
+        <v>71859</v>
+      </c>
+      <c r="E33" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="24">
+        <v>12345177</v>
+      </c>
+      <c r="D34" s="24">
+        <v>7049002</v>
+      </c>
+      <c r="E34" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C35" s="24">
+        <v>1140740415</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1141764340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="24">
+        <v>7350295491</v>
+      </c>
+      <c r="D36" s="24">
+        <v>7394286436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="24">
+        <v>1482236627</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1492770877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" s="24">
+        <v>1614550795</v>
+      </c>
+      <c r="D38" s="24">
+        <v>1625875037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1516165675</v>
+      </c>
+      <c r="D39" s="24">
+        <v>1527059770</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="24">
+        <v>6574562135</v>
+      </c>
+      <c r="D40" s="24">
+        <v>6614429760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="24">
+        <v>2768668217</v>
+      </c>
+      <c r="D41" s="24">
+        <v>2785882069</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1352055772</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1362043576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>321</v>
+      </c>
+      <c r="B43" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1457891441</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1468232534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C44" s="24">
+        <v>77927251</v>
+      </c>
+      <c r="D44" s="24">
+        <v>78766798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="24">
+        <v>3585379</v>
+      </c>
+      <c r="D45" s="24">
+        <v>3545102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" s="24">
+        <v>6397</v>
+      </c>
+      <c r="D46" s="24">
+        <v>7386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="24">
+        <v>27099975</v>
+      </c>
+      <c r="D47" s="24">
+        <v>27189250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="24">
+        <v>10234109</v>
+      </c>
+      <c r="D48" s="24">
+        <v>10190276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="24">
+        <v>1441212</v>
+      </c>
+      <c r="D49" s="24">
+        <v>1445499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C50" s="24">
+        <v>2087749</v>
+      </c>
+      <c r="D50" s="24">
+        <v>2121745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>311</v>
+      </c>
+      <c r="B51" t="s">
+        <v>312</v>
+      </c>
+      <c r="C51" s="24">
+        <v>22560125</v>
+      </c>
+      <c r="D51" s="24">
+        <v>23246508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="24">
+        <v>3616120</v>
+      </c>
+      <c r="D52" s="24">
+        <v>3691135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>315</v>
+      </c>
+      <c r="B53" t="s">
+        <v>316</v>
+      </c>
+      <c r="C53" s="24">
+        <v>972621</v>
+      </c>
+      <c r="D53" s="24">
+        <v>999356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" t="s">
+        <v>324</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1435848586</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1445913819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>325</v>
+      </c>
+      <c r="B55" t="s">
+        <v>326</v>
+      </c>
+      <c r="C55" s="24">
+        <v>60173787</v>
+      </c>
+      <c r="D55" s="24">
+        <v>60082146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="24">
+        <v>31165616</v>
+      </c>
+      <c r="D56" s="24">
+        <v>31451195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="24">
+        <v>5555</v>
+      </c>
+      <c r="D57" s="24">
+        <v>7804</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" s="24">
+        <v>8019763</v>
+      </c>
+      <c r="D58" s="24">
+        <v>8120094</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>332</v>
+      </c>
+      <c r="C59" s="24">
+        <v>22042756</v>
+      </c>
+      <c r="D59" s="24">
+        <v>22277532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="24">
+        <v>3109377</v>
+      </c>
+      <c r="D60" s="24">
+        <v>3120608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" t="s">
+        <v>336</v>
+      </c>
+      <c r="C61" s="24">
+        <v>18751</v>
+      </c>
+      <c r="D61" s="24">
+        <v>17071</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>337</v>
+      </c>
+      <c r="B62" t="s">
+        <v>338</v>
+      </c>
+      <c r="C62" s="24">
+        <v>5975801</v>
+      </c>
+      <c r="D62" s="24">
+        <v>6186978</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>339</v>
+      </c>
+      <c r="B63" t="s">
+        <v>340</v>
+      </c>
+      <c r="C63" s="24">
+        <v>1529562418</v>
+      </c>
+      <c r="D63" s="24">
+        <v>1539741183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B64" t="s">
+        <v>382</v>
+      </c>
+      <c r="C64" s="24">
+        <v>1688472002</v>
+      </c>
+      <c r="D64" s="24">
+        <v>1700551549</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>341</v>
+      </c>
+      <c r="B65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" s="24">
+        <v>1197083155</v>
+      </c>
+      <c r="D65" s="24">
+        <v>1206038498</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66" t="s">
+        <v>344</v>
+      </c>
+      <c r="C66" s="24">
+        <v>372286086</v>
+      </c>
+      <c r="D66" s="24">
+        <v>374505473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>345</v>
+      </c>
+      <c r="B67" t="s">
+        <v>346</v>
+      </c>
+      <c r="C67" s="24">
+        <v>8623424</v>
+      </c>
+      <c r="D67" s="24">
+        <v>8606857</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" t="s">
+        <v>366</v>
+      </c>
+      <c r="C68" s="24">
+        <v>26590109</v>
+      </c>
+      <c r="D68" s="24">
+        <v>26667551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>367</v>
+      </c>
+      <c r="B69" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="24">
+        <v>115820220</v>
+      </c>
+      <c r="D69" s="24">
+        <v>116757128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>369</v>
+      </c>
+      <c r="B70" t="s">
+        <v>370</v>
+      </c>
+      <c r="C70" s="24">
+        <v>3082121</v>
+      </c>
+      <c r="D70" s="24">
+        <v>3093512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" t="s">
+        <v>372</v>
+      </c>
+      <c r="C71" s="24">
+        <v>108911</v>
+      </c>
+      <c r="D71" s="24">
+        <v>107122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>373</v>
+      </c>
+      <c r="B72" t="s">
+        <v>374</v>
+      </c>
+      <c r="C72" s="24">
+        <v>5990</v>
+      </c>
+      <c r="D72" s="24">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" t="s">
+        <v>356</v>
+      </c>
+      <c r="C73" s="24">
+        <v>149</v>
+      </c>
+      <c r="D73" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>357</v>
+      </c>
+      <c r="B74" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" s="24">
+        <v>1544319</v>
+      </c>
+      <c r="D74" s="24">
+        <v>1594757</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" s="24">
+        <v>293696</v>
+      </c>
+      <c r="D75" s="24">
+        <v>308929</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" s="24">
+        <v>271233</v>
+      </c>
+      <c r="D76" s="24">
+        <v>285469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>363</v>
+      </c>
+      <c r="B77" t="s">
+        <v>364</v>
+      </c>
+      <c r="C77" s="24">
+        <v>979390</v>
+      </c>
+      <c r="D77" s="24">
+        <v>1000673</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" s="24">
+        <v>5678145</v>
+      </c>
+      <c r="D78" s="24">
+        <v>5632867</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>377</v>
+      </c>
+      <c r="B79" t="s">
+        <v>378</v>
+      </c>
+      <c r="C79" s="24">
+        <v>10049345</v>
+      </c>
+      <c r="D79" s="24">
+        <v>10119115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>379</v>
+      </c>
+      <c r="B80" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" s="24">
+        <v>89614869</v>
+      </c>
+      <c r="D80" s="24">
+        <v>89970309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>383</v>
+      </c>
+      <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" s="24">
+        <v>-2469089</v>
+      </c>
+      <c r="D81" s="24">
+        <v>-2492011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>385</v>
+      </c>
+      <c r="B82" t="s">
+        <v>386</v>
+      </c>
+      <c r="C82" s="24">
+        <v>78877110</v>
+      </c>
+      <c r="D82" s="24">
+        <v>80098230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>387</v>
+      </c>
+      <c r="B83" t="s">
+        <v>388</v>
+      </c>
+      <c r="C83" s="24">
+        <v>1267826</v>
+      </c>
+      <c r="D83" s="24">
+        <v>1272702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>389</v>
+      </c>
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="24">
+        <v>13378534</v>
+      </c>
+      <c r="D84" s="24">
+        <v>13209891</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>390</v>
+      </c>
+      <c r="B85" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" s="24">
+        <v>35270132</v>
+      </c>
+      <c r="D85" s="24">
+        <v>35280959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>392</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="24">
+        <v>18860584</v>
+      </c>
+      <c r="D86" s="24">
+        <v>18885310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" s="24">
+        <v>30446116</v>
+      </c>
+      <c r="D87" s="24">
+        <v>30659038</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>394</v>
+      </c>
+      <c r="B88" t="s">
+        <v>395</v>
+      </c>
+      <c r="C88" s="24">
+        <v>6287486</v>
+      </c>
+      <c r="D88" s="24">
+        <v>6445376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>398</v>
+      </c>
+      <c r="B89" t="s">
+        <v>399</v>
+      </c>
+      <c r="C89" s="24">
+        <v>22185026</v>
+      </c>
+      <c r="D89" s="24">
+        <v>22323241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>396</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="24">
+        <v>16256656</v>
+      </c>
+      <c r="D90" s="24">
+        <v>16349333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>397</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="24">
+        <v>70869799</v>
+      </c>
+      <c r="D91" s="24">
+        <v>72901319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>404</v>
+      </c>
+      <c r="B92" t="s">
+        <v>405</v>
+      </c>
+      <c r="C92" s="24">
+        <v>15792817</v>
+      </c>
+      <c r="D92" s="24">
+        <v>15904123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" t="s">
+        <v>409</v>
+      </c>
+      <c r="C93" s="24">
+        <v>1645750</v>
+      </c>
+      <c r="D93" s="24">
+        <v>1477182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>400</v>
+      </c>
+      <c r="B94" t="s">
+        <v>401</v>
+      </c>
+      <c r="C94" s="24">
+        <v>96134024</v>
+      </c>
+      <c r="D94" s="24">
+        <v>97401888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95" t="s">
+        <v>403</v>
+      </c>
+      <c r="C95" s="24">
+        <v>7935268</v>
+      </c>
+      <c r="D95" s="24">
+        <v>8009982</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>406</v>
+      </c>
+      <c r="B96" t="s">
+        <v>407</v>
+      </c>
+      <c r="C96" s="24">
+        <v>11317547</v>
+      </c>
+      <c r="D96" s="24">
+        <v>11412547</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>410</v>
+      </c>
+      <c r="B97" t="s">
+        <v>411</v>
+      </c>
+      <c r="C97" s="24">
+        <v>47830784</v>
+      </c>
+      <c r="D97" s="24">
+        <v>48327530</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>414</v>
+      </c>
+      <c r="B98" t="s">
+        <v>415</v>
+      </c>
+      <c r="C98" s="24">
+        <v>22410916</v>
+      </c>
+      <c r="D98" s="24">
+        <v>22791127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>416</v>
+      </c>
+      <c r="B99" t="s">
+        <v>417</v>
+      </c>
+      <c r="C99" s="24">
+        <v>62496866</v>
+      </c>
+      <c r="D99" s="24">
+        <v>62619215</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>420</v>
+      </c>
+      <c r="B100" t="s">
+        <v>421</v>
+      </c>
+      <c r="C100" s="24">
+        <v>27348982</v>
+      </c>
+      <c r="D100" s="24">
+        <v>27555716</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>422</v>
+      </c>
+      <c r="B101" t="s">
+        <v>423</v>
+      </c>
+      <c r="C101" s="24">
+        <v>85689597</v>
+      </c>
+      <c r="D101" s="24">
+        <v>86240803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" t="s">
+        <v>425</v>
+      </c>
+      <c r="C102" s="24">
+        <v>5974814</v>
+      </c>
+      <c r="D102" s="24">
+        <v>6203878</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>426</v>
+      </c>
+      <c r="B103" t="s">
+        <v>427</v>
+      </c>
+      <c r="C103" s="24">
+        <v>73588735</v>
+      </c>
+      <c r="D103" s="24">
+        <v>74229219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>432</v>
+      </c>
+      <c r="B104" t="s">
+        <v>433</v>
+      </c>
+      <c r="C104" s="24">
+        <v>1301575</v>
+      </c>
+      <c r="D104" s="24">
+        <v>1314791</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>428</v>
+      </c>
+      <c r="B105" t="s">
+        <v>429</v>
+      </c>
+      <c r="C105" s="24">
+        <v>33805740</v>
+      </c>
+      <c r="D105" s="24">
+        <v>33960245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>430</v>
+      </c>
+      <c r="B106" t="s">
+        <v>431</v>
+      </c>
+      <c r="C106" s="24">
+        <v>4018958</v>
+      </c>
+      <c r="D106" s="24">
+        <v>3998291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>438</v>
+      </c>
+      <c r="B107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C107" s="24">
+        <v>80774917</v>
+      </c>
+      <c r="D107" s="24">
+        <v>81678122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>442</v>
+      </c>
+      <c r="B108" t="s">
+        <v>443</v>
+      </c>
+      <c r="C108" s="24">
+        <v>47767620</v>
+      </c>
+      <c r="D108" s="24">
+        <v>48572847</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>444</v>
+      </c>
+      <c r="B109" t="s">
+        <v>445</v>
+      </c>
+      <c r="C109" s="24">
+        <v>11213414</v>
+      </c>
+      <c r="D109" s="24">
+        <v>11240759</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>446</v>
+      </c>
+      <c r="B110" t="s">
+        <v>447</v>
+      </c>
+      <c r="C110" s="24">
+        <v>59773568</v>
+      </c>
+      <c r="D110" s="24">
+        <v>60415367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>452</v>
+      </c>
+      <c r="B111" t="s">
+        <v>453</v>
+      </c>
+      <c r="C111" s="24">
+        <v>30136098</v>
+      </c>
+      <c r="D111" s="24">
+        <v>30391819</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>448</v>
+      </c>
+      <c r="B112" t="s">
+        <v>449</v>
+      </c>
+      <c r="C112" s="24">
+        <v>70932198</v>
+      </c>
+      <c r="D112" s="24">
+        <v>73478206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>454</v>
+      </c>
+      <c r="B113" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" s="24">
+        <v>100354992</v>
+      </c>
+      <c r="D113" s="24">
+        <v>104752581</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>450</v>
+      </c>
+      <c r="B114" t="s">
+        <v>451</v>
+      </c>
+      <c r="C114" s="24">
+        <v>302390404</v>
+      </c>
+      <c r="D114" s="24">
+        <v>304656983</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>468</v>
+      </c>
+      <c r="B115" t="s">
+        <v>469</v>
+      </c>
+      <c r="C115" s="24">
+        <v>36617899</v>
+      </c>
+      <c r="D115" s="24">
+        <v>37179187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>456</v>
+      </c>
+      <c r="B116" t="s">
+        <v>457</v>
+      </c>
+      <c r="C116" s="24">
+        <v>8351184</v>
+      </c>
+      <c r="D116" s="24">
+        <v>8503927</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>462</v>
+      </c>
+      <c r="B117" t="s">
+        <v>463</v>
+      </c>
+      <c r="C117" s="24">
+        <v>4900271</v>
+      </c>
+      <c r="D117" s="24">
+        <v>5343308</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>458</v>
+      </c>
+      <c r="B118" t="s">
+        <v>459</v>
+      </c>
+      <c r="C118" s="24">
+        <v>38856631</v>
+      </c>
+      <c r="D118" s="24">
+        <v>39915810</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>464</v>
+      </c>
+      <c r="B119" t="s">
+        <v>465</v>
+      </c>
+      <c r="C119" s="24">
+        <v>63920585</v>
+      </c>
+      <c r="D119" s="24">
+        <v>64892666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>460</v>
+      </c>
+      <c r="B120" t="s">
+        <v>461</v>
+      </c>
+      <c r="C120" s="24">
+        <v>461106371</v>
+      </c>
+      <c r="D120" s="24">
+        <v>466113416</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>466</v>
+      </c>
+      <c r="B121" t="s">
+        <v>467</v>
+      </c>
+      <c r="C121" s="24">
+        <v>629004575</v>
+      </c>
+      <c r="D121" s="24">
+        <v>633100868</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>470</v>
+      </c>
+      <c r="B122" t="s">
+        <v>471</v>
+      </c>
+      <c r="C122" s="24">
+        <v>33895776</v>
+      </c>
+      <c r="D122" s="24">
+        <v>34480053</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>472</v>
+      </c>
+      <c r="B123" t="s">
+        <v>473</v>
+      </c>
+      <c r="C123" s="24">
+        <v>6475973</v>
+      </c>
+      <c r="D123" s="24">
+        <v>6211290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>474</v>
+      </c>
+      <c r="B124" t="s">
+        <v>475</v>
+      </c>
+      <c r="C124" s="24">
+        <v>4494377</v>
+      </c>
+      <c r="D124" s="24">
+        <v>4403001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>476</v>
+      </c>
+      <c r="B125" t="s">
+        <v>477</v>
+      </c>
+      <c r="C125" s="24">
+        <v>292951432</v>
+      </c>
+      <c r="D125" s="24">
+        <v>350636659</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>478</v>
+      </c>
+      <c r="B126" t="s">
+        <v>479</v>
+      </c>
+      <c r="C126" s="24">
+        <v>58718152</v>
+      </c>
+      <c r="D126" s="24">
+        <v>58345840</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>480</v>
+      </c>
+      <c r="B127" t="s">
+        <v>481</v>
+      </c>
+      <c r="C127" s="24">
+        <v>18541777</v>
+      </c>
+      <c r="D127" s="24">
+        <v>18312637</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>482</v>
+      </c>
+      <c r="B128" t="s">
+        <v>483</v>
+      </c>
+      <c r="C128" s="24">
+        <v>18242504</v>
+      </c>
+      <c r="D128" s="24">
+        <v>18018440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>484</v>
+      </c>
+      <c r="B129" t="s">
+        <v>485</v>
+      </c>
+      <c r="C129" s="24">
+        <v>503416</v>
+      </c>
+      <c r="D129" s="24">
+        <v>512491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>486</v>
+      </c>
+      <c r="B130" t="s">
+        <v>487</v>
+      </c>
+      <c r="C130" s="24">
+        <v>1123230</v>
+      </c>
+      <c r="D130" s="24">
+        <v>1144859</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>488</v>
+      </c>
+      <c r="B131" t="s">
+        <v>489</v>
+      </c>
+      <c r="C131" s="24">
+        <v>51501</v>
+      </c>
+      <c r="D131" s="24">
+        <v>52931</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>490</v>
+      </c>
+      <c r="B132" t="s">
+        <v>491</v>
+      </c>
+      <c r="C132" s="24">
+        <v>1030088</v>
+      </c>
+      <c r="D132" s="24">
+        <v>1064789</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>492</v>
+      </c>
+      <c r="B133" t="s">
+        <v>493</v>
+      </c>
+      <c r="C133" s="24">
+        <v>52927499</v>
+      </c>
+      <c r="D133" s="24">
+        <v>53630731</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>494</v>
+      </c>
+      <c r="B134" t="s">
+        <v>495</v>
+      </c>
+      <c r="C134" s="24">
+        <v>4099715</v>
+      </c>
+      <c r="D134" s="24">
+        <v>3978966</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>347</v>
+      </c>
+      <c r="B135" t="s">
+        <v>348</v>
+      </c>
+      <c r="C135" s="24">
+        <v>509840441</v>
+      </c>
+      <c r="D135" s="24">
+        <v>509945733</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>349</v>
+      </c>
+      <c r="B136" t="s">
+        <v>350</v>
+      </c>
+      <c r="C136" s="24">
+        <v>1490048</v>
+      </c>
+      <c r="D136" s="24">
+        <v>1488113</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137" s="24">
+        <v>8240113</v>
+      </c>
+      <c r="D137" s="24">
+        <v>8294703</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>353</v>
+      </c>
+      <c r="B138" t="s">
+        <v>354</v>
+      </c>
+      <c r="C138" s="24">
+        <v>58794813</v>
+      </c>
+      <c r="D138" s="24">
+        <v>59017820</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>500</v>
+      </c>
+      <c r="B139" t="s">
+        <v>501</v>
+      </c>
+      <c r="C139" s="24">
+        <v>2503537243</v>
+      </c>
+      <c r="D139" s="24">
+        <v>2520499440</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>502</v>
+      </c>
+      <c r="B140" t="s">
+        <v>503</v>
+      </c>
+      <c r="C140" s="24">
+        <v>2820017174</v>
+      </c>
+      <c r="D140" s="24">
+        <v>2840716414</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>506</v>
+      </c>
+      <c r="B141" t="s">
+        <v>507</v>
+      </c>
+      <c r="C141" s="24">
+        <v>638155260</v>
+      </c>
+      <c r="D141" s="24">
+        <v>647137228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>508</v>
+      </c>
+      <c r="B142" t="s">
+        <v>509</v>
+      </c>
+      <c r="C142" s="24">
+        <v>19487677</v>
+      </c>
+      <c r="D142" s="24">
+        <v>19420701</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>510</v>
+      </c>
+      <c r="B143" t="s">
+        <v>511</v>
+      </c>
+      <c r="C143" s="24">
+        <v>657991150</v>
+      </c>
+      <c r="D143" s="24">
+        <v>661840085</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>504</v>
+      </c>
+      <c r="B144" t="s">
+        <v>505</v>
+      </c>
+      <c r="C144" s="24">
+        <v>18945265</v>
+      </c>
+      <c r="D144" s="24">
+        <v>19872681</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>516</v>
+      </c>
+      <c r="B145" t="s">
+        <v>517</v>
+      </c>
+      <c r="C145" s="24">
+        <v>69555074</v>
+      </c>
+      <c r="D145" s="24">
+        <v>71307993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>518</v>
+      </c>
+      <c r="B146" t="s">
+        <v>519</v>
+      </c>
+      <c r="C146" s="24">
+        <v>10813543</v>
+      </c>
+      <c r="D146" s="24">
+        <v>10616968</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>536</v>
+      </c>
+      <c r="B147" t="s">
+        <v>537</v>
+      </c>
+      <c r="C147" s="24">
+        <v>81429450</v>
+      </c>
+      <c r="D147" s="24">
+        <v>83401571</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>538</v>
+      </c>
+      <c r="B148" t="s">
+        <v>539</v>
+      </c>
+      <c r="C148" s="24">
+        <v>441376835</v>
+      </c>
+      <c r="D148" s="24">
+        <v>445078559</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>540</v>
+      </c>
+      <c r="B149" t="s">
+        <v>541</v>
+      </c>
+      <c r="C149" s="24">
+        <v>729873311</v>
+      </c>
+      <c r="D149" s="24">
+        <v>737722470</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>542</v>
+      </c>
+      <c r="B150" t="s">
+        <v>543</v>
+      </c>
+      <c r="C150" s="24">
+        <v>70234371</v>
+      </c>
+      <c r="D150" s="24">
+        <v>70732590</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>544</v>
+      </c>
+      <c r="B151" t="s">
+        <v>545</v>
+      </c>
+      <c r="C151" s="24">
+        <v>883720</v>
+      </c>
+      <c r="D151" s="24">
+        <v>914726</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>546</v>
+      </c>
+      <c r="B152" t="s">
+        <v>547</v>
+      </c>
+      <c r="C152" s="24">
+        <v>11043362</v>
+      </c>
+      <c r="D152" s="24">
+        <v>11270946</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>548</v>
+      </c>
+      <c r="B153" t="s">
+        <v>549</v>
+      </c>
+      <c r="C153" s="24">
+        <v>920547</v>
+      </c>
+      <c r="D153" s="24">
+        <v>941690</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>550</v>
+      </c>
+      <c r="B154" t="s">
+        <v>551</v>
+      </c>
+      <c r="C154" s="24">
+        <v>18081434</v>
+      </c>
+      <c r="D154" s="24">
+        <v>18641805</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>552</v>
+      </c>
+      <c r="B155" t="s">
+        <v>553</v>
+      </c>
+      <c r="C155" s="24">
+        <v>20155707</v>
+      </c>
+      <c r="D155" s="24">
+        <v>20731591</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>554</v>
+      </c>
+      <c r="B156" t="s">
+        <v>555</v>
+      </c>
+      <c r="C156" s="24">
+        <v>3622587</v>
+      </c>
+      <c r="D156" s="24">
+        <v>3687002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>556</v>
+      </c>
+      <c r="B157" t="s">
+        <v>557</v>
+      </c>
+      <c r="C157" s="24">
+        <v>3028760</v>
+      </c>
+      <c r="D157" s="24">
+        <v>3046236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>528</v>
+      </c>
+      <c r="B158" t="s">
+        <v>529</v>
+      </c>
+      <c r="C158" s="24">
+        <v>22093170</v>
+      </c>
+      <c r="D158" s="24">
+        <v>22087700</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>530</v>
+      </c>
+      <c r="B159" t="s">
+        <v>531</v>
+      </c>
+      <c r="C159" s="24">
+        <v>17460097</v>
+      </c>
+      <c r="D159" s="24">
+        <v>17615951</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>532</v>
+      </c>
+      <c r="B160" t="s">
+        <v>533</v>
+      </c>
+      <c r="C160" s="24">
+        <v>2347373</v>
+      </c>
+      <c r="D160" s="24">
+        <v>2389976</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>280</v>
+      </c>
+      <c r="B161" t="s">
+        <v>281</v>
+      </c>
+      <c r="C161" s="24">
+        <v>2187519317</v>
+      </c>
+      <c r="D161" s="24">
+        <v>2170399684</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" s="24">
+        <v>645421</v>
+      </c>
+      <c r="D162" s="24">
+        <v>700136</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>412</v>
+      </c>
+      <c r="B163" t="s">
+        <v>413</v>
+      </c>
+      <c r="C163" s="24">
+        <v>-41322845</v>
+      </c>
+      <c r="D163" s="24">
+        <v>-42692612</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>418</v>
+      </c>
+      <c r="B164" t="s">
+        <v>419</v>
+      </c>
+      <c r="C164" s="24">
+        <v>712289307</v>
+      </c>
+      <c r="D164" s="24">
+        <v>718834705</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>434</v>
+      </c>
+      <c r="B165" t="s">
+        <v>435</v>
+      </c>
+      <c r="C165" s="24">
+        <v>352749749</v>
+      </c>
+      <c r="D165" s="24">
+        <v>356051381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>436</v>
+      </c>
+      <c r="B166" t="s">
+        <v>437</v>
+      </c>
+      <c r="C166" s="24">
+        <v>305661837</v>
+      </c>
+      <c r="D166" s="24">
+        <v>308982197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>440</v>
+      </c>
+      <c r="B167" t="s">
+        <v>441</v>
+      </c>
+      <c r="C167" s="24">
+        <v>47087912</v>
+      </c>
+      <c r="D167" s="24">
+        <v>47057261</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>524</v>
+      </c>
+      <c r="B168" t="s">
+        <v>525</v>
+      </c>
+      <c r="C168" s="24">
+        <v>5441709</v>
+      </c>
+      <c r="D168" s="24">
+        <v>5727711</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>496</v>
+      </c>
+      <c r="B169" t="s">
+        <v>497</v>
+      </c>
+      <c r="C169" s="24">
+        <v>71007892</v>
+      </c>
+      <c r="D169" s="24">
+        <v>72113769</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>498</v>
+      </c>
+      <c r="B170" t="s">
+        <v>499</v>
+      </c>
+      <c r="C170" s="24">
+        <v>279884916</v>
+      </c>
+      <c r="D170" s="24">
+        <v>282802368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>512</v>
+      </c>
+      <c r="B171" t="s">
+        <v>513</v>
+      </c>
+      <c r="C171" s="24">
+        <v>233102230</v>
+      </c>
+      <c r="D171" s="24">
+        <v>238220563</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>514</v>
+      </c>
+      <c r="B172" t="s">
+        <v>515</v>
+      </c>
+      <c r="C172" s="24">
+        <v>94987335</v>
+      </c>
+      <c r="D172" s="24">
+        <v>92202106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>534</v>
+      </c>
+      <c r="B173" t="s">
+        <v>535</v>
+      </c>
+      <c r="C173" s="24">
+        <v>18069</v>
+      </c>
+      <c r="D173" s="24">
+        <v>18474</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>526</v>
+      </c>
+      <c r="B174" t="s">
+        <v>527</v>
+      </c>
+      <c r="C174" s="24">
+        <v>29642748</v>
+      </c>
+      <c r="D174" s="24">
+        <v>32254723</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>522</v>
+      </c>
+      <c r="B175" t="s">
+        <v>523</v>
+      </c>
+      <c r="C175" s="24">
+        <v>8366186</v>
+      </c>
+      <c r="D175" s="24">
+        <v>8742272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>520</v>
+      </c>
+      <c r="B176" t="s">
+        <v>521</v>
+      </c>
+      <c r="C176" s="24">
+        <v>5533416</v>
+      </c>
+      <c r="D176" s="24">
+        <v>5532302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>